--- a/data/hotels_by_city/Dallas/Dallas_shard_662.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_662.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,597 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r576673097-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>10802981</t>
+  </si>
+  <si>
+    <t>576673097</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Worst customer service I've endured in a very long time</t>
+  </si>
+  <si>
+    <t>My home flooded and I thought that was the worst thing that could happen but it wasn't. The worst thing that could happen was being displaced at the Residence Inn (Richardson/Plano) by my insurance company. The staff alone is what ruined the entire experience.
+Upon my arrival at almost midnight Chris informs me that I would have to pay for my month long stay for 2 rooms out of pocket up front because my insurance company hadn't sent their credit card authorization form. I proceeded to contact the 24 hour number and just so happen to get the gentle on the line that had personally spoken to "Chris" two days prior and Chris had confirmed receiving the form and placing it with my reservation. 
+After getting to my room I notice I had a shower only. Well I had my 8 year old grandson with me that doesn't like taking showers. I called the front desk and ask "Chris" If he had any rooms with a tub available. Chris said He had no tubs. I ask if he had no tubs available at that time or none in the hotel. Chris said, NONE in the ENTIRE hotel. I repeated the question just to be sure he understood and Chris said basically we were in a bathtub free zone. 
+After I hung up the phone with Chris I went on Residence Inn website and what was the first think I saw,...My home flooded and I thought that was the worst thing that could happen but it wasn't. The worst thing that could happen was being displaced at the Residence Inn (Richardson/Plano) by my insurance company. The staff alone is what ruined the entire experience.Upon my arrival at almost midnight Chris informs me that I would have to pay for my month long stay for 2 rooms out of pocket up front because my insurance company hadn't sent their credit card authorization form. I proceeded to contact the 24 hour number and just so happen to get the gentle on the line that had personally spoken to "Chris" two days prior and Chris had confirmed receiving the form and placing it with my reservation. After getting to my room I notice I had a shower only. Well I had my 8 year old grandson with me that doesn't like taking showers. I called the front desk and ask "Chris" If he had any rooms with a tub available. Chris said He had no tubs. I ask if he had no tubs available at that time or none in the hotel. Chris said, NONE in the ENTIRE hotel. I repeated the question just to be sure he understood and Chris said basically we were in a bathtub free zone. After I hung up the phone with Chris I went on Residence Inn website and what was the first think I saw, A photo of a bathtub in a king suite, which was what I was occupying. I then called the 24 hour number for the insurance company and explained what was going on and explained I needed to be relocated to a hotel with a tub. The representative called the hotel and ask the same questions regarding the tub. She asked several times and several ways just as I had and was told the same ridicules answer. Once the representative advised Chris that they needed to update their website he changed his reply to "well, some of the handicap rooms have tubs". When the representative advised that I would her insured would be moving out of 2 rooms he started stumbling over his words and calling my room after 2am. When I answered Chris said he thought I was talking about a jacuzzi tub and that they may have some rooms with tubs available the next morning. I recommending that he keep those tubs for the next person that may need them because I would be checking out and going where they know how to treat a lady.So you see that my house being flooded wasn't the worst thing that could have happen. I actually moved in Residence Inn and out within 12 hours. That was record breaking for me. My new hotel is awesome and I'm so glad to be here. They have treated me great since I stepped in the door. Thanks Chris for sending me and my insurance money else where.Nikki JacksonCake LadyRowlett TXMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Allie G, General Manager at Residence Inn Dallas Plano/Richardson, responded to this reviewResponded May 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2018</t>
+  </si>
+  <si>
+    <t>My home flooded and I thought that was the worst thing that could happen but it wasn't. The worst thing that could happen was being displaced at the Residence Inn (Richardson/Plano) by my insurance company. The staff alone is what ruined the entire experience.
+Upon my arrival at almost midnight Chris informs me that I would have to pay for my month long stay for 2 rooms out of pocket up front because my insurance company hadn't sent their credit card authorization form. I proceeded to contact the 24 hour number and just so happen to get the gentle on the line that had personally spoken to "Chris" two days prior and Chris had confirmed receiving the form and placing it with my reservation. 
+After getting to my room I notice I had a shower only. Well I had my 8 year old grandson with me that doesn't like taking showers. I called the front desk and ask "Chris" If he had any rooms with a tub available. Chris said He had no tubs. I ask if he had no tubs available at that time or none in the hotel. Chris said, NONE in the ENTIRE hotel. I repeated the question just to be sure he understood and Chris said basically we were in a bathtub free zone. 
+After I hung up the phone with Chris I went on Residence Inn website and what was the first think I saw,...My home flooded and I thought that was the worst thing that could happen but it wasn't. The worst thing that could happen was being displaced at the Residence Inn (Richardson/Plano) by my insurance company. The staff alone is what ruined the entire experience.Upon my arrival at almost midnight Chris informs me that I would have to pay for my month long stay for 2 rooms out of pocket up front because my insurance company hadn't sent their credit card authorization form. I proceeded to contact the 24 hour number and just so happen to get the gentle on the line that had personally spoken to "Chris" two days prior and Chris had confirmed receiving the form and placing it with my reservation. After getting to my room I notice I had a shower only. Well I had my 8 year old grandson with me that doesn't like taking showers. I called the front desk and ask "Chris" If he had any rooms with a tub available. Chris said He had no tubs. I ask if he had no tubs available at that time or none in the hotel. Chris said, NONE in the ENTIRE hotel. I repeated the question just to be sure he understood and Chris said basically we were in a bathtub free zone. After I hung up the phone with Chris I went on Residence Inn website and what was the first think I saw, A photo of a bathtub in a king suite, which was what I was occupying. I then called the 24 hour number for the insurance company and explained what was going on and explained I needed to be relocated to a hotel with a tub. The representative called the hotel and ask the same questions regarding the tub. She asked several times and several ways just as I had and was told the same ridicules answer. Once the representative advised Chris that they needed to update their website he changed his reply to "well, some of the handicap rooms have tubs". When the representative advised that I would her insured would be moving out of 2 rooms he started stumbling over his words and calling my room after 2am. When I answered Chris said he thought I was talking about a jacuzzi tub and that they may have some rooms with tubs available the next morning. I recommending that he keep those tubs for the next person that may need them because I would be checking out and going where they know how to treat a lady.So you see that my house being flooded wasn't the worst thing that could have happen. I actually moved in Residence Inn and out within 12 hours. That was record breaking for me. My new hotel is awesome and I'm so glad to be here. They have treated me great since I stepped in the door. Thanks Chris for sending me and my insurance money else where.Nikki JacksonCake LadyRowlett TXMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r574738465-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>574738465</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>Love love love this place</t>
+  </si>
+  <si>
+    <t>Convenient, clean and always a great rate! Property appears to be fairly new. Right off highway but not loud in the room. You can barely hear the highway noice. Close to restaurants. About 25-30 min I think from DFW but all highway.  Good breakfast included. Rooms are very spacious with a kitchen and sitting area. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Convenient, clean and always a great rate! Property appears to be fairly new. Right off highway but not loud in the room. You can barely hear the highway noice. Close to restaurants. About 25-30 min I think from DFW but all highway.  Good breakfast included. Rooms are very spacious with a kitchen and sitting area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r572986944-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>572986944</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>Very Comfortable and Quiet</t>
+  </si>
+  <si>
+    <t>We stayed here to get a little quiet and rest and this hotel completely met our needs. Our room had everything we needed and more for a very comfortable stay. From check in to check out the service was great. Only things I would say were not quit as expected was they did not have hot coffee at all times in the lobby and the breakfast could have been better. There was a charge for premium wifi, so be careful to not click the wrong button when you login.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stayed here to get a little quiet and rest and this hotel completely met our needs. Our room had everything we needed and more for a very comfortable stay. From check in to check out the service was great. Only things I would say were not quit as expected was they did not have hot coffee at all times in the lobby and the breakfast could have been better. There was a charge for premium wifi, so be careful to not click the wrong button when you login.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r563783402-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>563783402</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>great place to stay x2</t>
+  </si>
+  <si>
+    <t>I"ve stayed her 2 times in the past 2 months and gotten good rates, especially on weekends. It's clean and comfortable. The only complaint I can think of is that for some reason they dont come in the rooms some days and it's not because of a DND sign being out. There's a decent number of tv stations and the shower is fantastic. I"m not a breakfast person but it's pretty good for what it is. Good selection of foods. there's a shuttle that takes you within 5 miles but i didnt use it. you are right next to the highway but on the lower floor you dont hear it. for some reason on the top floor you can hear cars through the bathroom fan. not a huge deal. also bit more noise on the top floor from the road. not bad at all. Check in staff is super friendly. There are many hotels open/opening around this area but with a good price i'd take this every time. There are lights with outlets on next to the bed. and there's USB ports near the front door. One thing you need to note is 3rd party bookings dont get your marriott points.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Allie G, General Manager at Residence Inn Dallas Plano/Richardson, responded to this reviewResponded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2018</t>
+  </si>
+  <si>
+    <t>I"ve stayed her 2 times in the past 2 months and gotten good rates, especially on weekends. It's clean and comfortable. The only complaint I can think of is that for some reason they dont come in the rooms some days and it's not because of a DND sign being out. There's a decent number of tv stations and the shower is fantastic. I"m not a breakfast person but it's pretty good for what it is. Good selection of foods. there's a shuttle that takes you within 5 miles but i didnt use it. you are right next to the highway but on the lower floor you dont hear it. for some reason on the top floor you can hear cars through the bathroom fan. not a huge deal. also bit more noise on the top floor from the road. not bad at all. Check in staff is super friendly. There are many hotels open/opening around this area but with a good price i'd take this every time. There are lights with outlets on next to the bed. and there's USB ports near the front door. One thing you need to note is 3rd party bookings dont get your marriott points.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r562734315-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>562734315</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>Family Reunionn</t>
+  </si>
+  <si>
+    <t>This hotel is just a few months old. It has easy access to Geo Bush Hwy. The room was nicely furnished and was very clean. We got a rate of $99. per night for four nights. The breakfast was above average. The bed was very comfortable. We stayed on the back side of the hotel and did not hear any hwy traffic. We would stay here again and we highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is just a few months old. It has easy access to Geo Bush Hwy. The room was nicely furnished and was very clean. We got a rate of $99. per night for four nights. The breakfast was above average. The bed was very comfortable. We stayed on the back side of the hotel and did not hear any hwy traffic. We would stay here again and we highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r561344048-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>561344048</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>TREMENDOUS value for the money!!</t>
+  </si>
+  <si>
+    <t>These days, it's so hard to find an affordable hotel online. The pictures look great on your phone, and then the actual hotel is a dump. Especially for rooms under $100.The Residence is a REFRESHING BREATH OF FRESH AIR in sub-$100 rooms. Absolutely beautiful rooms, spotlessly clean, friendly, professional staff...it's a 5-star experience that won't break the bank.If you've found this hotel on Trip advisor, congratulations! Your search is over! Book it. You won't regret it!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Alejandra G, General Manager at Residence Inn Dallas Plano/Richardson, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>These days, it's so hard to find an affordable hotel online. The pictures look great on your phone, and then the actual hotel is a dump. Especially for rooms under $100.The Residence is a REFRESHING BREATH OF FRESH AIR in sub-$100 rooms. Absolutely beautiful rooms, spotlessly clean, friendly, professional staff...it's a 5-star experience that won't break the bank.If you've found this hotel on Trip advisor, congratulations! Your search is over! Book it. You won't regret it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r557630134-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>557630134</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Best experience</t>
+  </si>
+  <si>
+    <t>I am truly enjoying my stay at this hotel. The staff is friendly courteous and treats you like family. Chris at the front desk is always helpful and happy. The rooms are clean and spacious. I would recommend this hotel to anyone. They are pet friendly as well. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>I am truly enjoying my stay at this hotel. The staff is friendly courteous and treats you like family. Chris at the front desk is always helpful and happy. The rooms are clean and spacious. I would recommend this hotel to anyone. They are pet friendly as well. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r550512504-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>550512504</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>Nice room, but room for improvement</t>
+  </si>
+  <si>
+    <t>Had a one bedroom king suite. The rooms are nice and the TVs are big. My only issues are with housekeeping (found two used wash cloths hanging on the shower curtain). Also, it took about 2 hours to warm the room up from 66F to 77F. The breakfast is good, but they need more toasters and waffle makers (only one each). The front desk staff were really nice. Overall a good stay, but I have had better experiences at a Residence Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Had a one bedroom king suite. The rooms are nice and the TVs are big. My only issues are with housekeeping (found two used wash cloths hanging on the shower curtain). Also, it took about 2 hours to warm the room up from 66F to 77F. The breakfast is good, but they need more toasters and waffle makers (only one each). The front desk staff were really nice. Overall a good stay, but I have had better experiences at a Residence Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r546432993-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>546432993</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Brand new residence inn right off the highway and very convenient to many restaurants and stores, excellent spot. Great fitness room and pool area. Breakfast was outstanding as well and happy hour was great as well, with bottled beer available.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Brand new residence inn right off the highway and very convenient to many restaurants and stores, excellent spot. Great fitness room and pool area. Breakfast was outstanding as well and happy hour was great as well, with bottled beer available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r541543383-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>541543383</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>Terribly Disappointed</t>
+  </si>
+  <si>
+    <t>I was really looking forward to staying here. I booked one night at least a month before and yet upon arrival the front desk says they had bad news that they didn’t have a room for me nor also for my co worker who had a room reserved. They indicated they had been oversold. No phone call to tell me this in advance instead they let me drive out there and tell me. So she says they had made reservations at a nearby hotel and were going to pay for that because if the inconvenience. (That is nice). So she tells me and writes down the name of the nearby hotel. She specifically wrote down that it was the holiday inn Richardson/Plano. I read the address and plugged it into google and the girl said yes that’s it. She gave me the paper with this written down and told me to bring this to them and that she already reserved the room. At this point I’m just mildly annoyed because it’s a bit further than where I wanted to be but only by another 3 miles. So we get to that specific holiday inn and the front desk there says he doesn’t have the reservation. I call back the Residence Inn and the lady there says oh they made a mistake telling us and documenting the waivers as holiday inn Richardson Plano because really they meant to send us to...I was really looking forward to staying here. I booked one night at least a month before and yet upon arrival the front desk says they had bad news that they didn’t have a room for me nor also for my co worker who had a room reserved. They indicated they had been oversold. No phone call to tell me this in advance instead they let me drive out there and tell me. So she says they had made reservations at a nearby hotel and were going to pay for that because if the inconvenience. (That is nice). So she tells me and writes down the name of the nearby hotel. She specifically wrote down that it was the holiday inn Richardson/Plano. I read the address and plugged it into google and the girl said yes that’s it. She gave me the paper with this written down and told me to bring this to them and that she already reserved the room. At this point I’m just mildly annoyed because it’s a bit further than where I wanted to be but only by another 3 miles. So we get to that specific holiday inn and the front desk there says he doesn’t have the reservation. I call back the Residence Inn and the lady there says oh they made a mistake telling us and documenting the waivers as holiday inn Richardson Plano because really they meant to send us to holiday inn at Garland! (Much further). I asked her to please cancel at the Garland location because we were at the Richardson Plano location and they had open rooms. She said no she was not sure she would be allowed to cancel with Garland holiday inn. She wanted to call me back later. I told her look it’s late traffic is bad I can’t be in Garland as I have early business meeting in Plano in the morning. I told her she needs to speak to this holiday inn front desk now. So she does reluctantly and she convinces him to do all the work in the system and then still puts him on hold for long time. She finally authorizes it. I had a nice stay at the Holiday Inn instead.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was really looking forward to staying here. I booked one night at least a month before and yet upon arrival the front desk says they had bad news that they didn’t have a room for me nor also for my co worker who had a room reserved. They indicated they had been oversold. No phone call to tell me this in advance instead they let me drive out there and tell me. So she says they had made reservations at a nearby hotel and were going to pay for that because if the inconvenience. (That is nice). So she tells me and writes down the name of the nearby hotel. She specifically wrote down that it was the holiday inn Richardson/Plano. I read the address and plugged it into google and the girl said yes that’s it. She gave me the paper with this written down and told me to bring this to them and that she already reserved the room. At this point I’m just mildly annoyed because it’s a bit further than where I wanted to be but only by another 3 miles. So we get to that specific holiday inn and the front desk there says he doesn’t have the reservation. I call back the Residence Inn and the lady there says oh they made a mistake telling us and documenting the waivers as holiday inn Richardson Plano because really they meant to send us to...I was really looking forward to staying here. I booked one night at least a month before and yet upon arrival the front desk says they had bad news that they didn’t have a room for me nor also for my co worker who had a room reserved. They indicated they had been oversold. No phone call to tell me this in advance instead they let me drive out there and tell me. So she says they had made reservations at a nearby hotel and were going to pay for that because if the inconvenience. (That is nice). So she tells me and writes down the name of the nearby hotel. She specifically wrote down that it was the holiday inn Richardson/Plano. I read the address and plugged it into google and the girl said yes that’s it. She gave me the paper with this written down and told me to bring this to them and that she already reserved the room. At this point I’m just mildly annoyed because it’s a bit further than where I wanted to be but only by another 3 miles. So we get to that specific holiday inn and the front desk there says he doesn’t have the reservation. I call back the Residence Inn and the lady there says oh they made a mistake telling us and documenting the waivers as holiday inn Richardson Plano because really they meant to send us to holiday inn at Garland! (Much further). I asked her to please cancel at the Garland location because we were at the Richardson Plano location and they had open rooms. She said no she was not sure she would be allowed to cancel with Garland holiday inn. She wanted to call me back later. I told her look it’s late traffic is bad I can’t be in Garland as I have early business meeting in Plano in the morning. I told her she needs to speak to this holiday inn front desk now. So she does reluctantly and she convinces him to do all the work in the system and then still puts him on hold for long time. She finally authorizes it. I had a nice stay at the Holiday Inn instead.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r540074271-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>540074271</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>Absolutely amazing</t>
+  </si>
+  <si>
+    <t>The place is like home away from home. Staff was very friendly. Staff went out of their  way to make sure we had a Happy Anniversary, they brought us chocolate covered strawberries and wine to our room with a signed card. Would definitely recommend this hotel and stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Eloisa S, Manager at Residence Inn Dallas Plano/Richardson, responded to this reviewResponded November 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2017</t>
+  </si>
+  <si>
+    <t>The place is like home away from home. Staff was very friendly. Staff went out of their  way to make sure we had a Happy Anniversary, they brought us chocolate covered strawberries and wine to our room with a signed card. Would definitely recommend this hotel and stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r531223347-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>531223347</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>A Terrific &amp; Welcome Addition!</t>
+  </si>
+  <si>
+    <t>We've routinely stayed at a similar extended-stay hotel nearby for years.  The lack of competition started to show in how their facility was run and maintained.  We were, therefore, thrilled to see this addition to the Plano/Richardson area.  We found a FRESH, nicely designed facility.  The rooms are spacious, very clean, and comfortable; the kitchens are well-appointed.  Our particular room was on the end of the building, and we found it so well-insulated (triple-pane windows) that we did not hear anything from the nearby highway. The breakfast bar covers the bases/nothing unusual.  Parking at the building was full each night, but there is a nice, well-lit covered parking garage onsite to handle late arrivals (we never saw more than 4-5 cars there on any morning).Special kudos to the front-desk staff who went out of their way to make sure we had the rooms we needed...they even walked us to our room for a preview to make sure it met our needs. So...we were impressed with our first stay here, and very pleased to finally have another choice.  We will certainly return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Eloisa S, Manager at Residence Inn Dallas Plano/Richardson, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>We've routinely stayed at a similar extended-stay hotel nearby for years.  The lack of competition started to show in how their facility was run and maintained.  We were, therefore, thrilled to see this addition to the Plano/Richardson area.  We found a FRESH, nicely designed facility.  The rooms are spacious, very clean, and comfortable; the kitchens are well-appointed.  Our particular room was on the end of the building, and we found it so well-insulated (triple-pane windows) that we did not hear anything from the nearby highway. The breakfast bar covers the bases/nothing unusual.  Parking at the building was full each night, but there is a nice, well-lit covered parking garage onsite to handle late arrivals (we never saw more than 4-5 cars there on any morning).Special kudos to the front-desk staff who went out of their way to make sure we had the rooms we needed...they even walked us to our room for a preview to make sure it met our needs. So...we were impressed with our first stay here, and very pleased to finally have another choice.  We will certainly return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r515714463-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>515714463</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Great property, terrible road noise</t>
+  </si>
+  <si>
+    <t>This hotel is incredibly clean, friendly staff, and well appointed rooms that go on forever. We had a room facing the freeway. We noticed a message card on the nightstand inviting us to take advantage of the complimentary earplugs. That should have sent up a red flag but it did not. We needed a dinner recommendation and the front desk staff could not have been more informative, I loved that group! We came back from a delicious meal, which was close at hand thanks to the primo location of this hotel, and collapsed into bed. That's when we realized why there were complimentary ear plugs. The road noise was relentless, especially after 5am. Don't let that scare you away from a wonderful property, just be sure to use those earplugs!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is incredibly clean, friendly staff, and well appointed rooms that go on forever. We had a room facing the freeway. We noticed a message card on the nightstand inviting us to take advantage of the complimentary earplugs. That should have sent up a red flag but it did not. We needed a dinner recommendation and the front desk staff could not have been more informative, I loved that group! We came back from a delicious meal, which was close at hand thanks to the primo location of this hotel, and collapsed into bed. That's when we realized why there were complimentary ear plugs. The road noise was relentless, especially after 5am. Don't let that scare you away from a wonderful property, just be sure to use those earplugs!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r507189377-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>507189377</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Wonderfully Quiet Stay!</t>
+  </si>
+  <si>
+    <t>We got a room on the fourth floor (no giants walking on our ceiling) and facing the back where there is a distribution center.  It was very peaceful, quiet and hassle-free.  No noisy pool parties, no traffic.  The only noise we could hear was a faint beep from the trucks at the distribution center, but it was so faint it wasn't a problem.  The room was new so nothing to complain about there.  I do my own housekeeping so the room was spotless!  It had all of the amenities that most Residence Inns possess, i.e. full kitchen with full-sized refrigerator, stove-top, microwave, coffee pot, toaster, dishes, pots and pans and utensils.  Nice barbeque grill out back.  I didn't have the pleasure of interacting with the front desk staff much BUT that's a wonderful thing because that means we had absolutely no problems at all.  The evening socials were tended to by Sonia.  She was wonderful and friendly and always made the snacks look wonderful.  Typical food, wine and beer as at most Residence Inns.  Typical breakfast every morning too.  Good stay.  We moved to this hotel from a neighboring property and will never go back to the other place.  This is our new spot.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>We got a room on the fourth floor (no giants walking on our ceiling) and facing the back where there is a distribution center.  It was very peaceful, quiet and hassle-free.  No noisy pool parties, no traffic.  The only noise we could hear was a faint beep from the trucks at the distribution center, but it was so faint it wasn't a problem.  The room was new so nothing to complain about there.  I do my own housekeeping so the room was spotless!  It had all of the amenities that most Residence Inns possess, i.e. full kitchen with full-sized refrigerator, stove-top, microwave, coffee pot, toaster, dishes, pots and pans and utensils.  Nice barbeque grill out back.  I didn't have the pleasure of interacting with the front desk staff much BUT that's a wonderful thing because that means we had absolutely no problems at all.  The evening socials were tended to by Sonia.  She was wonderful and friendly and always made the snacks look wonderful.  Typical food, wine and beer as at most Residence Inns.  Typical breakfast every morning too.  Good stay.  We moved to this hotel from a neighboring property and will never go back to the other place.  This is our new spot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r494889220-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>494889220</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noisy traffic </t>
+  </si>
+  <si>
+    <t>Get a room on the back side of this place or the traffic noise will keep you up. Otherwise a great place to stay, new, well appointed rooms, short on close parking, there is a nearby parking ramp. Good buffet for breakfast. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Get a room on the back side of this place or the traffic noise will keep you up. Otherwise a great place to stay, new, well appointed rooms, short on close parking, there is a nearby parking ramp. Good buffet for breakfast. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r487776603-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>487776603</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>Excelent!</t>
+  </si>
+  <si>
+    <t>Very good hotel! Room is clean and spacious. Housekeeping service is very efficient. Location is very good during the night but during the day there are some noise from construction work around. All staff people are very kind.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Very good hotel! Room is clean and spacious. Housekeeping service is very efficient. Location is very good during the night but during the day there are some noise from construction work around. All staff people are very kind.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r473944269-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>473944269</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>This is a new hotel and so everything is top notch. I stayed here for 3 nights. It has complimentary WiFi and breakfast. Breakfast was very good with plenty of stuff.Room was spacious with kitchen. There are cups and plates, etc. provided as well. The sofa expands into another bed.There is a distribution center behind the hotel but I did not hear any noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>This is a new hotel and so everything is top notch. I stayed here for 3 nights. It has complimentary WiFi and breakfast. Breakfast was very good with plenty of stuff.Room was spacious with kitchen. There are cups and plates, etc. provided as well. The sofa expands into another bed.There is a distribution center behind the hotel but I did not hear any noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r466662473-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>466662473</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Nice, New Hotel</t>
+  </si>
+  <si>
+    <t>This is an excellent place to stay in Plano!  It just opened in January 2017.  Finishing touches are still being added.  I was surprised to find two men on a scissors lift right outside my living room window (they seemed surprised to see me, too).  They appeared to be adding caulk to the window.  The kitchen has a full sized fridge, small stove, a sink, and a dishwasher.  I enjoyed having a separate living room, bedroom, bathroom, and kitchen.  The bathroom has a curved shower rod and storage space under the sink for toiletry items.  The hotel sits RIGHT OFF the highway; ear plugs are offered at the front desk if needed.  I didn't hear any noise at all and didn't use ear plugs.   The free breakfast had waffles, bacon, biscuits, eggs, fruit, cereal, etc. which was more than enough for a meal.  They have free on-site parking and free wi-fi.  There was a TV in the living area and in the bedroom.  I had a pleasant stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2017</t>
+  </si>
+  <si>
+    <t>This is an excellent place to stay in Plano!  It just opened in January 2017.  Finishing touches are still being added.  I was surprised to find two men on a scissors lift right outside my living room window (they seemed surprised to see me, too).  They appeared to be adding caulk to the window.  The kitchen has a full sized fridge, small stove, a sink, and a dishwasher.  I enjoyed having a separate living room, bedroom, bathroom, and kitchen.  The bathroom has a curved shower rod and storage space under the sink for toiletry items.  The hotel sits RIGHT OFF the highway; ear plugs are offered at the front desk if needed.  I didn't hear any noise at all and didn't use ear plugs.   The free breakfast had waffles, bacon, biscuits, eggs, fruit, cereal, etc. which was more than enough for a meal.  They have free on-site parking and free wi-fi.  There was a TV in the living area and in the bedroom.  I had a pleasant stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r462007749-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>462007749</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Very new hotel</t>
+  </si>
+  <si>
+    <t>The biggest perk is that it's a brand new hotel with modern amenities. There is a lot of construction and new buildings near this property. There is nothing walkable except for a gas station and convenient store. The staff was friendly and the hotel had all of the amenities you'd expect at a Residence Inn. My room faced a major expressway which was noisy. There are rooms that face the other direction.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2017</t>
+  </si>
+  <si>
+    <t>The biggest perk is that it's a brand new hotel with modern amenities. There is a lot of construction and new buildings near this property. There is nothing walkable except for a gas station and convenient store. The staff was friendly and the hotel had all of the amenities you'd expect at a Residence Inn. My room faced a major expressway which was noisy. There are rooms that face the other direction.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r456535442-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>456535442</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>Great new hotel at great location</t>
+  </si>
+  <si>
+    <t>This hotel is on a very convenient location, near the highways to go anywhere but with windows that keep the noise out from your room.The hotel lobby, rooms and elevators seem all new (elevators are slow :) They have free breakfast and free drinks and food between 6:00 pm and 8:00 pm. The rooms are spacious, full kitchen, new big TV. Comfortable bed and good pillows.The AC worked well and no noise.The bathroom is very nice and clean (although they have 'soft' water that takes more work to remove the soap from your hands/body :). Be careful driving out of this hotel, cars drive really fast on the frontage road.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is on a very convenient location, near the highways to go anywhere but with windows that keep the noise out from your room.The hotel lobby, rooms and elevators seem all new (elevators are slow :) They have free breakfast and free drinks and food between 6:00 pm and 8:00 pm. The rooms are spacious, full kitchen, new big TV. Comfortable bed and good pillows.The AC worked well and no noise.The bathroom is very nice and clean (although they have 'soft' water that takes more work to remove the soap from your hands/body :). Be careful driving out of this hotel, cars drive really fast on the frontage road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r454630056-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>454630056</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Best Marriott experience of my life</t>
+  </si>
+  <si>
+    <t>With nearly 550 nights logged with Marriott in the last 3 years, I hope this review is taken with a heavy weight. Eloisa Sanchez single handedly drove me to write this review tonight. I could go on to tell you about my day filled with travel delays and stressful meetings, but I didn't have to share these details with Eloisa; she was the single shining moment for me in what was otherwise a terrible day.
+After I had checked in, I had to leave for a late evening business meeting and Eloisa had informed me about the complimentary dinner option they had available - the free wine caught my attention after the long day I had, but I had to rush off. When I came back I realized I had missed the wine. I checked the grab and go, and realized no wine was available for purchase. Eloisa instantly appeared and offered to grab me a glass from the kitchen.  I was amazed by the extra effort she took to even offer me a second glass. No one had ever been so kind to me.  Ever.
+To add to my stressful day, I later realized I had forgotten my brush, and within minutes Eloisa was there to save the day.
+Even after being on the go for nearly 18 hours straight today, I made time to write this review because Eloisa Sanchez was the best part of my day and...With nearly 550 nights logged with Marriott in the last 3 years, I hope this review is taken with a heavy weight. Eloisa Sanchez single handedly drove me to write this review tonight. I could go on to tell you about my day filled with travel delays and stressful meetings, but I didn't have to share these details with Eloisa; she was the single shining moment for me in what was otherwise a terrible day.After I had checked in, I had to leave for a late evening business meeting and Eloisa had informed me about the complimentary dinner option they had available - the free wine caught my attention after the long day I had, but I had to rush off. When I came back I realized I had missed the wine. I checked the grab and go, and realized no wine was available for purchase. Eloisa instantly appeared and offered to grab me a glass from the kitchen.  I was amazed by the extra effort she took to even offer me a second glass. No one had ever been so kind to me.  Ever.To add to my stressful day, I later realized I had forgotten my brush, and within minutes Eloisa was there to save the day.Even after being on the go for nearly 18 hours straight today, I made time to write this review because Eloisa Sanchez was the best part of my day and she deserves to be recognized. She represents the reason why I will always be a loyal Marriott member.  Thank you Eloisa!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2017</t>
+  </si>
+  <si>
+    <t>With nearly 550 nights logged with Marriott in the last 3 years, I hope this review is taken with a heavy weight. Eloisa Sanchez single handedly drove me to write this review tonight. I could go on to tell you about my day filled with travel delays and stressful meetings, but I didn't have to share these details with Eloisa; she was the single shining moment for me in what was otherwise a terrible day.
+After I had checked in, I had to leave for a late evening business meeting and Eloisa had informed me about the complimentary dinner option they had available - the free wine caught my attention after the long day I had, but I had to rush off. When I came back I realized I had missed the wine. I checked the grab and go, and realized no wine was available for purchase. Eloisa instantly appeared and offered to grab me a glass from the kitchen.  I was amazed by the extra effort she took to even offer me a second glass. No one had ever been so kind to me.  Ever.
+To add to my stressful day, I later realized I had forgotten my brush, and within minutes Eloisa was there to save the day.
+Even after being on the go for nearly 18 hours straight today, I made time to write this review because Eloisa Sanchez was the best part of my day and...With nearly 550 nights logged with Marriott in the last 3 years, I hope this review is taken with a heavy weight. Eloisa Sanchez single handedly drove me to write this review tonight. I could go on to tell you about my day filled with travel delays and stressful meetings, but I didn't have to share these details with Eloisa; she was the single shining moment for me in what was otherwise a terrible day.After I had checked in, I had to leave for a late evening business meeting and Eloisa had informed me about the complimentary dinner option they had available - the free wine caught my attention after the long day I had, but I had to rush off. When I came back I realized I had missed the wine. I checked the grab and go, and realized no wine was available for purchase. Eloisa instantly appeared and offered to grab me a glass from the kitchen.  I was amazed by the extra effort she took to even offer me a second glass. No one had ever been so kind to me.  Ever.To add to my stressful day, I later realized I had forgotten my brush, and within minutes Eloisa was there to save the day.Even after being on the go for nearly 18 hours straight today, I made time to write this review because Eloisa Sanchez was the best part of my day and she deserves to be recognized. She represents the reason why I will always be a loyal Marriott member.  Thank you Eloisa!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r452888488-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>452888488</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>New favorite place!</t>
+  </si>
+  <si>
+    <t>I have found a new favorite place to stay when in the Plano/ Richardson Area! Fantastic staff, brand-new rooms, Great location! Easy on easy off from the George W. Bush turnpike, Great restaurants and plenty to do in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>I have found a new favorite place to stay when in the Plano/ Richardson Area! Fantastic staff, brand-new rooms, Great location! Easy on easy off from the George W. Bush turnpike, Great restaurants and plenty to do in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r452862753-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>452862753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesomeness all around! </t>
+  </si>
+  <si>
+    <t>Beautiful brand new hotel with everything! You have to stay here.. best decision we made all week. Rooms are quiet, TVs are large and the kitchens have it all. Socials at night and very good breakfasts. MoreShow less</t>
+  </si>
+  <si>
+    <t>Beautiful brand new hotel with everything! You have to stay here.. best decision we made all week. Rooms are quiet, TVs are large and the kitchens have it all. Socials at night and very good breakfasts. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r452491174-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>452491174</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wow. Fantastic all the way around </t>
+  </si>
+  <si>
+    <t>So I just checked in for a quick overnight here at the Residence Inn in Plano, and I was greeted by some of the best Marriott employees I have ever met, and let me preface that as I am a platinum member already. Eloisa Sanchez and Rachael were friendly, professional and couteous. They treated us as if I was a long lost friend when they mingled with us at the managers' reception. The food was home cooked and delicious,  and the the beer and wine was free. What more could anyone ask for?! I'm looking forward to many more nights here!Paul C.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2017</t>
+  </si>
+  <si>
+    <t>So I just checked in for a quick overnight here at the Residence Inn in Plano, and I was greeted by some of the best Marriott employees I have ever met, and let me preface that as I am a platinum member already. Eloisa Sanchez and Rachael were friendly, professional and couteous. They treated us as if I was a long lost friend when they mingled with us at the managers' reception. The food was home cooked and delicious,  and the the beer and wine was free. What more could anyone ask for?! I'm looking forward to many more nights here!Paul C.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1239,1542 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>94</v>
+      </c>
+      <c r="X9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>94</v>
+      </c>
+      <c r="X10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>129</v>
+      </c>
+      <c r="X12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>137</v>
+      </c>
+      <c r="X13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>146</v>
+      </c>
+      <c r="X14" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O15" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>155</v>
+      </c>
+      <c r="X15" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>155</v>
+      </c>
+      <c r="X16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>155</v>
+      </c>
+      <c r="X17" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>179</v>
+      </c>
+      <c r="X18" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s">
+        <v>186</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>187</v>
+      </c>
+      <c r="X19" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>195</v>
+      </c>
+      <c r="O20" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>196</v>
+      </c>
+      <c r="X20" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>204</v>
+      </c>
+      <c r="O21" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>205</v>
+      </c>
+      <c r="X21" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s">
+        <v>212</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>213</v>
+      </c>
+      <c r="X22" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>217</v>
+      </c>
+      <c r="J23" t="s">
+        <v>218</v>
+      </c>
+      <c r="K23" t="s">
+        <v>219</v>
+      </c>
+      <c r="L23" t="s">
+        <v>220</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" t="s">
+        <v>93</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>221</v>
+      </c>
+      <c r="X23" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>225</v>
+      </c>
+      <c r="J24" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" t="s">
+        <v>226</v>
+      </c>
+      <c r="L24" t="s">
+        <v>227</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>221</v>
+      </c>
+      <c r="X24" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>230</v>
+      </c>
+      <c r="J25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>195</v>
+      </c>
+      <c r="O25" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>234</v>
+      </c>
+      <c r="X25" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_662.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_662.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>Nikita J</t>
   </si>
   <si>
     <t>06/15/2018</t>
@@ -195,6 +198,9 @@
 After I hung up the phone with Chris I went on Residence Inn website and what was the first think I saw,...My home flooded and I thought that was the worst thing that could happen but it wasn't. The worst thing that could happen was being displaced at the Residence Inn (Richardson/Plano) by my insurance company. The staff alone is what ruined the entire experience.Upon my arrival at almost midnight Chris informs me that I would have to pay for my month long stay for 2 rooms out of pocket up front because my insurance company hadn't sent their credit card authorization form. I proceeded to contact the 24 hour number and just so happen to get the gentle on the line that had personally spoken to "Chris" two days prior and Chris had confirmed receiving the form and placing it with my reservation. After getting to my room I notice I had a shower only. Well I had my 8 year old grandson with me that doesn't like taking showers. I called the front desk and ask "Chris" If he had any rooms with a tub available. Chris said He had no tubs. I ask if he had no tubs available at that time or none in the hotel. Chris said, NONE in the ENTIRE hotel. I repeated the question just to be sure he understood and Chris said basically we were in a bathtub free zone. After I hung up the phone with Chris I went on Residence Inn website and what was the first think I saw, A photo of a bathtub in a king suite, which was what I was occupying. I then called the 24 hour number for the insurance company and explained what was going on and explained I needed to be relocated to a hotel with a tub. The representative called the hotel and ask the same questions regarding the tub. She asked several times and several ways just as I had and was told the same ridicules answer. Once the representative advised Chris that they needed to update their website he changed his reply to "well, some of the handicap rooms have tubs". When the representative advised that I would her insured would be moving out of 2 rooms he started stumbling over his words and calling my room after 2am. When I answered Chris said he thought I was talking about a jacuzzi tub and that they may have some rooms with tubs available the next morning. I recommending that he keep those tubs for the next person that may need them because I would be checking out and going where they know how to treat a lady.So you see that my house being flooded wasn't the worst thing that could have happen. I actually moved in Residence Inn and out within 12 hours. That was record breaking for me. My new hotel is awesome and I'm so glad to be here. They have treated me great since I stepped in the door. Thanks Chris for sending me and my insurance money else where.Nikki JacksonCake LadyRowlett TXMore</t>
   </si>
   <si>
+    <t>Missv3507</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r574738465-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Convenient, clean and always a great rate! Property appears to be fairly new. Right off highway but not loud in the room. You can barely hear the highway noice. Close to restaurants. About 25-30 min I think from DFW but all highway.  Good breakfast included. Rooms are very spacious with a kitchen and sitting area. More</t>
   </si>
   <si>
+    <t>Dianna A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r572986944-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>We stayed here to get a little quiet and rest and this hotel completely met our needs. Our room had everything we needed and more for a very comfortable stay. From check in to check out the service was great. Only things I would say were not quit as expected was they did not have hot coffee at all times in the lobby and the breakfast could have been better. There was a charge for premium wifi, so be careful to not click the wrong button when you login.More</t>
   </si>
   <si>
+    <t>todd r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r563783402-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>I"ve stayed her 2 times in the past 2 months and gotten good rates, especially on weekends. It's clean and comfortable. The only complaint I can think of is that for some reason they dont come in the rooms some days and it's not because of a DND sign being out. There's a decent number of tv stations and the shower is fantastic. I"m not a breakfast person but it's pretty good for what it is. Good selection of foods. there's a shuttle that takes you within 5 miles but i didnt use it. you are right next to the highway but on the lower floor you dont hear it. for some reason on the top floor you can hear cars through the bathroom fan. not a huge deal. also bit more noise on the top floor from the road. not bad at all. Check in staff is super friendly. There are many hotels open/opening around this area but with a good price i'd take this every time. There are lights with outlets on next to the bed. and there's USB ports near the front door. One thing you need to note is 3rd party bookings dont get your marriott points.More</t>
   </si>
   <si>
+    <t>retired4448</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r562734315-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>This hotel is just a few months old. It has easy access to Geo Bush Hwy. The room was nicely furnished and was very clean. We got a rate of $99. per night for four nights. The breakfast was above average. The bed was very comfortable. We stayed on the back side of the hotel and did not hear any hwy traffic. We would stay here again and we highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>FootTrafficTravelers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r561344048-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -315,6 +333,9 @@
     <t>These days, it's so hard to find an affordable hotel online. The pictures look great on your phone, and then the actual hotel is a dump. Especially for rooms under $100.The Residence is a REFRESHING BREATH OF FRESH AIR in sub-$100 rooms. Absolutely beautiful rooms, spotlessly clean, friendly, professional staff...it's a 5-star experience that won't break the bank.If you've found this hotel on Trip advisor, congratulations! Your search is over! Book it. You won't regret it!More</t>
   </si>
   <si>
+    <t>jck7350</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r557630134-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -336,6 +357,9 @@
     <t>I am truly enjoying my stay at this hotel. The staff is friendly courteous and treats you like family. Chris at the front desk is always helpful and happy. The rooms are clean and spacious. I would recommend this hotel to anyone. They are pet friendly as well. More</t>
   </si>
   <si>
+    <t>Wayne S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r550512504-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -357,6 +381,9 @@
     <t>Had a one bedroom king suite. The rooms are nice and the TVs are big. My only issues are with housekeeping (found two used wash cloths hanging on the shower curtain). Also, it took about 2 hours to warm the room up from 66F to 77F. The breakfast is good, but they need more toasters and waffle makers (only one each). The front desk staff were really nice. Overall a good stay, but I have had better experiences at a Residence Inn.More</t>
   </si>
   <si>
+    <t>Brr4346AD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r546432993-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -378,6 +405,9 @@
     <t>Brand new residence inn right off the highway and very convenient to many restaurants and stores, excellent spot. Great fitness room and pool area. Breakfast was outstanding as well and happy hour was great as well, with bottled beer available.More</t>
   </si>
   <si>
+    <t>dmacbean</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r541543383-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -396,6 +426,9 @@
     <t>I was really looking forward to staying here. I booked one night at least a month before and yet upon arrival the front desk says they had bad news that they didn’t have a room for me nor also for my co worker who had a room reserved. They indicated they had been oversold. No phone call to tell me this in advance instead they let me drive out there and tell me. So she says they had made reservations at a nearby hotel and were going to pay for that because if the inconvenience. (That is nice). So she tells me and writes down the name of the nearby hotel. She specifically wrote down that it was the holiday inn Richardson/Plano. I read the address and plugged it into google and the girl said yes that’s it. She gave me the paper with this written down and told me to bring this to them and that she already reserved the room. At this point I’m just mildly annoyed because it’s a bit further than where I wanted to be but only by another 3 miles. So we get to that specific holiday inn and the front desk there says he doesn’t have the reservation. I call back the Residence Inn and the lady there says oh they made a mistake telling us and documenting the waivers as holiday inn Richardson Plano because really they meant to send us to...I was really looking forward to staying here. I booked one night at least a month before and yet upon arrival the front desk says they had bad news that they didn’t have a room for me nor also for my co worker who had a room reserved. They indicated they had been oversold. No phone call to tell me this in advance instead they let me drive out there and tell me. So she says they had made reservations at a nearby hotel and were going to pay for that because if the inconvenience. (That is nice). So she tells me and writes down the name of the nearby hotel. She specifically wrote down that it was the holiday inn Richardson/Plano. I read the address and plugged it into google and the girl said yes that’s it. She gave me the paper with this written down and told me to bring this to them and that she already reserved the room. At this point I’m just mildly annoyed because it’s a bit further than where I wanted to be but only by another 3 miles. So we get to that specific holiday inn and the front desk there says he doesn’t have the reservation. I call back the Residence Inn and the lady there says oh they made a mistake telling us and documenting the waivers as holiday inn Richardson Plano because really they meant to send us to holiday inn at Garland! (Much further). I asked her to please cancel at the Garland location because we were at the Richardson Plano location and they had open rooms. She said no she was not sure she would be allowed to cancel with Garland holiday inn. She wanted to call me back later. I told her look it’s late traffic is bad I can’t be in Garland as I have early business meeting in Plano in the morning. I told her she needs to speak to this holiday inn front desk now. So she does reluctantly and she convinces him to do all the work in the system and then still puts him on hold for long time. She finally authorizes it. I had a nice stay at the Holiday Inn instead.More</t>
   </si>
   <si>
+    <t>Brenda J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r540074271-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -420,6 +453,9 @@
     <t>The place is like home away from home. Staff was very friendly. Staff went out of their  way to make sure we had a Happy Anniversary, they brought us chocolate covered strawberries and wine to our room with a signed card. Would definitely recommend this hotel and stay here again.More</t>
   </si>
   <si>
+    <t>Jay C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r531223347-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -444,6 +480,9 @@
     <t>We've routinely stayed at a similar extended-stay hotel nearby for years.  The lack of competition started to show in how their facility was run and maintained.  We were, therefore, thrilled to see this addition to the Plano/Richardson area.  We found a FRESH, nicely designed facility.  The rooms are spacious, very clean, and comfortable; the kitchens are well-appointed.  Our particular room was on the end of the building, and we found it so well-insulated (triple-pane windows) that we did not hear anything from the nearby highway. The breakfast bar covers the bases/nothing unusual.  Parking at the building was full each night, but there is a nice, well-lit covered parking garage onsite to handle late arrivals (we never saw more than 4-5 cars there on any morning).Special kudos to the front-desk staff who went out of their way to make sure we had the rooms we needed...they even walked us to our room for a preview to make sure it met our needs. So...we were impressed with our first stay here, and very pleased to finally have another choice.  We will certainly return.More</t>
   </si>
   <si>
+    <t>MrsSonia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r515714463-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -471,6 +510,9 @@
     <t>This hotel is incredibly clean, friendly staff, and well appointed rooms that go on forever. We had a room facing the freeway. We noticed a message card on the nightstand inviting us to take advantage of the complimentary earplugs. That should have sent up a red flag but it did not. We needed a dinner recommendation and the front desk staff could not have been more informative, I loved that group! We came back from a delicious meal, which was close at hand thanks to the primo location of this hotel, and collapsed into bed. That's when we realized why there were complimentary ear plugs. The road noise was relentless, especially after 5am. Don't let that scare you away from a wonderful property, just be sure to use those earplugs!More</t>
   </si>
   <si>
+    <t>eyelovetotraveltwo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r507189377-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -498,6 +540,9 @@
     <t>We got a room on the fourth floor (no giants walking on our ceiling) and facing the back where there is a distribution center.  It was very peaceful, quiet and hassle-free.  No noisy pool parties, no traffic.  The only noise we could hear was a faint beep from the trucks at the distribution center, but it was so faint it wasn't a problem.  The room was new so nothing to complain about there.  I do my own housekeeping so the room was spotless!  It had all of the amenities that most Residence Inns possess, i.e. full kitchen with full-sized refrigerator, stove-top, microwave, coffee pot, toaster, dishes, pots and pans and utensils.  Nice barbeque grill out back.  I didn't have the pleasure of interacting with the front desk staff much BUT that's a wonderful thing because that means we had absolutely no problems at all.  The evening socials were tended to by Sonia.  She was wonderful and friendly and always made the snacks look wonderful.  Typical food, wine and beer as at most Residence Inns.  Typical breakfast every morning too.  Good stay.  We moved to this hotel from a neighboring property and will never go back to the other place.  This is our new spot.More</t>
   </si>
   <si>
+    <t>Dick S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r494889220-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -519,6 +564,9 @@
     <t>Get a room on the back side of this place or the traffic noise will keep you up. Otherwise a great place to stay, new, well appointed rooms, short on close parking, there is a nearby parking ramp. Good buffet for breakfast. More</t>
   </si>
   <si>
+    <t>Rogerio A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r487776603-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -540,6 +588,9 @@
     <t>Very good hotel! Room is clean and spacious. Housekeeping service is very efficient. Location is very good during the night but during the day there are some noise from construction work around. All staff people are very kind.More</t>
   </si>
   <si>
+    <t>leolite</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r473944269-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -570,6 +621,9 @@
     <t>This is a new hotel and so everything is top notch. I stayed here for 3 nights. It has complimentary WiFi and breakfast. Breakfast was very good with plenty of stuff.Room was spacious with kitchen. There are cups and plates, etc. provided as well. The sofa expands into another bed.There is a distribution center behind the hotel but I did not hear any noise.More</t>
   </si>
   <si>
+    <t>angie2061</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r466662473-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -594,6 +648,9 @@
     <t>This is an excellent place to stay in Plano!  It just opened in January 2017.  Finishing touches are still being added.  I was surprised to find two men on a scissors lift right outside my living room window (they seemed surprised to see me, too).  They appeared to be adding caulk to the window.  The kitchen has a full sized fridge, small stove, a sink, and a dishwasher.  I enjoyed having a separate living room, bedroom, bathroom, and kitchen.  The bathroom has a curved shower rod and storage space under the sink for toiletry items.  The hotel sits RIGHT OFF the highway; ear plugs are offered at the front desk if needed.  I didn't hear any noise at all and didn't use ear plugs.   The free breakfast had waffles, bacon, biscuits, eggs, fruit, cereal, etc. which was more than enough for a meal.  They have free on-site parking and free wi-fi.  There was a TV in the living area and in the bedroom.  I had a pleasant stay!More</t>
   </si>
   <si>
+    <t>Matthew D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r462007749-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -621,6 +678,9 @@
     <t>The biggest perk is that it's a brand new hotel with modern amenities. There is a lot of construction and new buildings near this property. There is nothing walkable except for a gas station and convenient store. The staff was friendly and the hotel had all of the amenities you'd expect at a Residence Inn. My room faced a major expressway which was noisy. There are rooms that face the other direction.More</t>
   </si>
   <si>
+    <t>edshortt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r456535442-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -646,6 +706,9 @@
   </si>
   <si>
     <t>This hotel is on a very convenient location, near the highways to go anywhere but with windows that keep the noise out from your room.The hotel lobby, rooms and elevators seem all new (elevators are slow :) They have free breakfast and free drinks and food between 6:00 pm and 8:00 pm. The rooms are spacious, full kitchen, new big TV. Comfortable bed and good pillows.The AC worked well and no noise.The bathroom is very nice and clean (although they have 'soft' water that takes more work to remove the soap from your hands/body :). Be careful driving out of this hotel, cars drive really fast on the frontage road.More</t>
+  </si>
+  <si>
+    <t>Cameron S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r454630056-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
@@ -678,6 +741,9 @@
 Even after being on the go for nearly 18 hours straight today, I made time to write this review because Eloisa Sanchez was the best part of my day and...With nearly 550 nights logged with Marriott in the last 3 years, I hope this review is taken with a heavy weight. Eloisa Sanchez single handedly drove me to write this review tonight. I could go on to tell you about my day filled with travel delays and stressful meetings, but I didn't have to share these details with Eloisa; she was the single shining moment for me in what was otherwise a terrible day.After I had checked in, I had to leave for a late evening business meeting and Eloisa had informed me about the complimentary dinner option they had available - the free wine caught my attention after the long day I had, but I had to rush off. When I came back I realized I had missed the wine. I checked the grab and go, and realized no wine was available for purchase. Eloisa instantly appeared and offered to grab me a glass from the kitchen.  I was amazed by the extra effort she took to even offer me a second glass. No one had ever been so kind to me.  Ever.To add to my stressful day, I later realized I had forgotten my brush, and within minutes Eloisa was there to save the day.Even after being on the go for nearly 18 hours straight today, I made time to write this review because Eloisa Sanchez was the best part of my day and she deserves to be recognized. She represents the reason why I will always be a loyal Marriott member.  Thank you Eloisa!!!More</t>
   </si>
   <si>
+    <t>Pilot_Kevin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r452888488-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -702,6 +768,9 @@
     <t>I have found a new favorite place to stay when in the Plano/ Richardson Area! Fantastic staff, brand-new rooms, Great location! Easy on easy off from the George W. Bush turnpike, Great restaurants and plenty to do in the area!More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r452862753-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -715,6 +784,9 @@
   </si>
   <si>
     <t>Beautiful brand new hotel with everything! You have to stay here.. best decision we made all week. Rooms are quiet, TVs are large and the kitchens have it all. Socials at night and very good breakfasts. More</t>
+  </si>
+  <si>
+    <t>Paul C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r452491174-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
@@ -1243,43 +1315,47 @@
       <c r="A2" t="n">
         <v>33936</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>175875</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -1297,56 +1373,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33936</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>175876</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1358,56 +1438,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33936</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>175877</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1423,56 +1507,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33936</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>175878</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
         <v>74</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" t="s">
-        <v>71</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1490,56 +1578,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33936</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>175879</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>78</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1555,56 +1647,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33936</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>175880</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1616,56 +1712,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33936</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>175881</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1677,56 +1777,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="X8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33936</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>17616</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1744,56 +1848,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="X9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33936</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>80652</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -1811,56 +1919,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="X10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33936</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>175882</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1876,50 +1988,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33936</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>175883</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>125</v>
       </c>
-      <c r="J12" t="s">
-        <v>126</v>
-      </c>
-      <c r="K12" t="s">
-        <v>127</v>
-      </c>
-      <c r="L12" t="s">
-        <v>128</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>116</v>
-      </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1937,56 +2053,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="X12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33936</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>67158</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2004,56 +2124,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="X13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33936</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>175884</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2069,56 +2193,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33936</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>175885</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="O15" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2134,56 +2262,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="X15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33936</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>175886</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2195,56 +2327,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="X16" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33936</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>76133</v>
+      </c>
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2260,56 +2396,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="X17" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33936</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>175887</v>
+      </c>
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="O18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2321,56 +2461,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="X18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33936</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>175888</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2388,56 +2532,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="X19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33936</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>3884</v>
+      </c>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2455,56 +2603,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="X20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33936</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>175889</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="O21" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2516,56 +2668,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="X21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="Y21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33936</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>171258</v>
+      </c>
+      <c r="C22" t="s">
+        <v>228</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="K22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2577,56 +2733,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="X22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="Y22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33936</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>175890</v>
+      </c>
+      <c r="C23" t="s">
+        <v>237</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="J23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="K23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O23" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2644,56 +2804,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="X23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="Y23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33936</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>246</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="J24" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O24" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2705,56 +2869,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="X24" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="Y24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33936</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>42097</v>
+      </c>
+      <c r="C25" t="s">
+        <v>252</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="K25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O25" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -2766,13 +2934,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="X25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="Y25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_662.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_662.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="372">
   <si>
     <t>STR#</t>
   </si>
@@ -150,19 +150,172 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Nikita J</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r610994995-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>10802981</t>
+  </si>
+  <si>
+    <t>610994995</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We stayed here twice while we were finding a place to live in Plano. A new nice, clean Residence Inn. Great service and a good continental breakfast. I would highly recommend it if you are in the area. I enjoyed having the full kitchen since we were here for a few weeks.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r605259263-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>605259263</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>Avoid this location</t>
+  </si>
+  <si>
+    <t>The check in process is not easy and takes too long.   The HVAC does not work effectively for a comfortable stay for the local climate.  Staff was unable to solve a simple request... my room did not have a hair dryer and I had to call multiple times and it took over 15 minutes to respond.  Not ideal when on a timeline and an expected amenity is missing from a room.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r604809788-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>604809788</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>I travel in the area a lot and always stay at this hotel. One of the reasons I stay here is because Ricky behind the desk always make me feel at home and always remembers my name. Ricky always goes out of his way to help me with any issues that I may have. What a great guy!!</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r593662525-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>593662525</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Among the greatest hotels in Marriott's portfolio</t>
+  </si>
+  <si>
+    <t>Finally, a hotel with all of the amenities Marriott has been known to have for the past twenty years. Newspaper and coffee in the lobby. A very clean and spacious room. Convenient access by freeway. Not to mention its close proximity to the CityLine/Bush DART light rail station, a definite plus. This hotel far exceeded my expectations, especially compared to my last two Residence Inn stays. My sole problem during the stay was the light coming from the At Home warehouse behind the hotel, keeping me up at night even with the blackout curtains drawn. Overall, I am very satisfied and would recommend this hotel to anyone needing a place to stay near Dallas.P.S. For any elevator fans out there, a nice pair of Schindler 3300s can be found here.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Finally, a hotel with all of the amenities Marriott has been known to have for the past twenty years. Newspaper and coffee in the lobby. A very clean and spacious room. Convenient access by freeway. Not to mention its close proximity to the CityLine/Bush DART light rail station, a definite plus. This hotel far exceeded my expectations, especially compared to my last two Residence Inn stays. My sole problem during the stay was the light coming from the At Home warehouse behind the hotel, keeping me up at night even with the blackout curtains drawn. Overall, I am very satisfied and would recommend this hotel to anyone needing a place to stay near Dallas.P.S. For any elevator fans out there, a nice pair of Schindler 3300s can be found here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r589524983-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>589524983</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel but....</t>
+  </si>
+  <si>
+    <t>I checked in to the hotel this week after a long day of traveling and meetings. Staff was nice and lobby looked great. Walked in to the room, which has a great layout and was very spacious. About an hour after arriving, I noticed a bug crawling on the bed. I took video of it and went to speak with the manager, who was nice and apologetic, but decided to check out. Not sure if it was a bedbug or a small roach, but either way, I did not feel like staying in a property that had something crawling on the bed. Giving the hotel a rating of 2 because staff was nice. Definitely not staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Allie G, General Manager at Residence Inn Dallas Plano/Richardson, responded to this reviewResponded June 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2018</t>
+  </si>
+  <si>
+    <t>I checked in to the hotel this week after a long day of traveling and meetings. Staff was nice and lobby looked great. Walked in to the room, which has a great layout and was very spacious. About an hour after arriving, I noticed a bug crawling on the bed. I took video of it and went to speak with the manager, who was nice and apologetic, but decided to check out. Not sure if it was a bedbug or a small roach, but either way, I did not feel like staying in a property that had something crawling on the bed. Giving the hotel a rating of 2 because staff was nice. Definitely not staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r585438101-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>585438101</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>In the spirit of acknowledging such a wonderful treatment I want to write this review. I don't know if it's the Texas hospitality but the staff has been just WONDERFUL. Also the accommodations are very clean and in very good conditions.MoreShow less</t>
+  </si>
+  <si>
+    <t>Allie G, General Manager at Residence Inn Dallas Plano/Richardson, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>In the spirit of acknowledging such a wonderful treatment I want to write this review. I don't know if it's the Texas hospitality but the staff has been just WONDERFUL. Also the accommodations are very clean and in very good conditions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r583751073-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>583751073</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Family Weekend Staycation</t>
+  </si>
+  <si>
+    <t>My Family of 6 stayed here for the Memorial Day weekend. Our rooms had everything that was needed and more. The Staff was absolutely wonderful, they operate in the true spirit of hospitality. My family and I will definitely return. Chris was helpful and most polite, the morning breakfast buffet staff was polite and very accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Allie G, General Manager at Residence Inn Dallas Plano/Richardson, responded to this reviewResponded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2018</t>
+  </si>
+  <si>
+    <t>My Family of 6 stayed here for the Memorial Day weekend. Our rooms had everything that was needed and more. The Staff was absolutely wonderful, they operate in the true spirit of hospitality. My family and I will definitely return. Chris was helpful and most polite, the morning breakfast buffet staff was polite and very accommodating.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r576673097-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>56463</t>
-  </si>
-  <si>
-    <t>10802981</t>
   </si>
   <si>
     <t>576673097</t>
@@ -183,9 +336,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Allie G, General Manager at Residence Inn Dallas Plano/Richardson, responded to this reviewResponded May 3, 2018</t>
   </si>
   <si>
@@ -198,9 +348,6 @@
 After I hung up the phone with Chris I went on Residence Inn website and what was the first think I saw,...My home flooded and I thought that was the worst thing that could happen but it wasn't. The worst thing that could happen was being displaced at the Residence Inn (Richardson/Plano) by my insurance company. The staff alone is what ruined the entire experience.Upon my arrival at almost midnight Chris informs me that I would have to pay for my month long stay for 2 rooms out of pocket up front because my insurance company hadn't sent their credit card authorization form. I proceeded to contact the 24 hour number and just so happen to get the gentle on the line that had personally spoken to "Chris" two days prior and Chris had confirmed receiving the form and placing it with my reservation. After getting to my room I notice I had a shower only. Well I had my 8 year old grandson with me that doesn't like taking showers. I called the front desk and ask "Chris" If he had any rooms with a tub available. Chris said He had no tubs. I ask if he had no tubs available at that time or none in the hotel. Chris said, NONE in the ENTIRE hotel. I repeated the question just to be sure he understood and Chris said basically we were in a bathtub free zone. After I hung up the phone with Chris I went on Residence Inn website and what was the first think I saw, A photo of a bathtub in a king suite, which was what I was occupying. I then called the 24 hour number for the insurance company and explained what was going on and explained I needed to be relocated to a hotel with a tub. The representative called the hotel and ask the same questions regarding the tub. She asked several times and several ways just as I had and was told the same ridicules answer. Once the representative advised Chris that they needed to update their website he changed his reply to "well, some of the handicap rooms have tubs". When the representative advised that I would her insured would be moving out of 2 rooms he started stumbling over his words and calling my room after 2am. When I answered Chris said he thought I was talking about a jacuzzi tub and that they may have some rooms with tubs available the next morning. I recommending that he keep those tubs for the next person that may need them because I would be checking out and going where they know how to treat a lady.So you see that my house being flooded wasn't the worst thing that could have happen. I actually moved in Residence Inn and out within 12 hours. That was record breaking for me. My new hotel is awesome and I'm so glad to be here. They have treated me great since I stepped in the door. Thanks Chris for sending me and my insurance money else where.Nikki JacksonCake LadyRowlett TXMore</t>
   </si>
   <si>
-    <t>Missv3507</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r574738465-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -225,9 +372,6 @@
     <t>Convenient, clean and always a great rate! Property appears to be fairly new. Right off highway but not loud in the room. You can barely hear the highway noice. Close to restaurants. About 25-30 min I think from DFW but all highway.  Good breakfast included. Rooms are very spacious with a kitchen and sitting area. More</t>
   </si>
   <si>
-    <t>Dianna A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r572986944-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -243,16 +387,55 @@
     <t>We stayed here to get a little quiet and rest and this hotel completely met our needs. Our room had everything we needed and more for a very comfortable stay. From check in to check out the service was great. Only things I would say were not quit as expected was they did not have hot coffee at all times in the lobby and the breakfast could have been better. There was a charge for premium wifi, so be careful to not click the wrong button when you login.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>We stayed here to get a little quiet and rest and this hotel completely met our needs. Our room had everything we needed and more for a very comfortable stay. From check in to check out the service was great. Only things I would say were not quit as expected was they did not have hot coffee at all times in the lobby and the breakfast could have been better. There was a charge for premium wifi, so be careful to not click the wrong button when you login.More</t>
   </si>
   <si>
-    <t>todd r</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r568843192-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>568843192</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Nice, new, clean hotel</t>
+  </si>
+  <si>
+    <t>Stayed overnight for a weekend family trip to Plano.  This is a nice, new, clean hotel.  Staff was great.  I asked for a room on the quiet side of the building and they honored this request.  The back side of the building overlooks a warehouse, distribution center but that's better than the highway, in my opinion.  Across the highway there are restaurants, with a variety of choices for dinner.  The breakfast at the hotel was good, and my husband commented that the coffee was great.  Air conditioning worked well and the bed was comfortable. The kitchen and bathroom were clean.  One slight issue - housekeeping knocked on our door at 9:30 in the morning on the day we were checking out and asked when we'd be leaving.  I thought that strange, because we were checking out.  I'd understand if we weren't checking out, but I've never had housekeeping knock on my door the day we were checking out and asking when we'd be out of there.  Especially hours before the required time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed overnight for a weekend family trip to Plano.  This is a nice, new, clean hotel.  Staff was great.  I asked for a room on the quiet side of the building and they honored this request.  The back side of the building overlooks a warehouse, distribution center but that's better than the highway, in my opinion.  Across the highway there are restaurants, with a variety of choices for dinner.  The breakfast at the hotel was good, and my husband commented that the coffee was great.  Air conditioning worked well and the bed was comfortable. The kitchen and bathroom were clean.  One slight issue - housekeeping knocked on our door at 9:30 in the morning on the day we were checking out and asked when we'd be leaving.  I thought that strange, because we were checking out.  I'd understand if we weren't checking out, but I've never had housekeeping knock on my door the day we were checking out and asking when we'd be out of there.  Especially hours before the required time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r564697321-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>564697321</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Second Stay.  What happened?</t>
+  </si>
+  <si>
+    <t>First time we stayed here, it was great.  No noise, clean, new, friendly staff.  This time, only five newspapers in the morning so I never get one.  The barbecue grill would not light although they did finally fix it so I could grill.  I live here long term so working stove, grill, etc. is essential for me.
+Developed a strange leak under the faucet in the bathroom.  Called the front desk and the girl who answered, who will remain anonymous, would not give her name when she answered the phone.  As a matter of fact, neither did the guy who answered one night.  I asked for maintenance because of the leak and she said it would be a few minutes.  About 30 minutes later, no maintenance so my husband called requesting maintenance.  After several more minutes, maintenance finally arrived.  No leak.
+One evening, we decided we wanted to rent some movies so we bought a DVD player.  Could not get it to work.  I called the front desk and asked if we were not allowed to watch movies in the room.  The man who answered, also not giving a name, said we could not watch movies in the room.  After poking around a bit, I discovered that “YES YOU CAN’ watch movies in the room via DVD player.  So we did.
+A day later, the mysterious leak under the faucet returned.  I called the front desk and, once again, got...First time we stayed here, it was great.  No noise, clean, new, friendly staff.  This time, only five newspapers in the morning so I never get one.  The barbecue grill would not light although they did finally fix it so I could grill.  I live here long term so working stove, grill, etc. is essential for me.Developed a strange leak under the faucet in the bathroom.  Called the front desk and the girl who answered, who will remain anonymous, would not give her name when she answered the phone.  As a matter of fact, neither did the guy who answered one night.  I asked for maintenance because of the leak and she said it would be a few minutes.  About 30 minutes later, no maintenance so my husband called requesting maintenance.  After several more minutes, maintenance finally arrived.  No leak.One evening, we decided we wanted to rent some movies so we bought a DVD player.  Could not get it to work.  I called the front desk and asked if we were not allowed to watch movies in the room.  The man who answered, also not giving a name, said we could not watch movies in the room.  After poking around a bit, I discovered that “YES YOU CAN’ watch movies in the room via DVD player.  So we did.A day later, the mysterious leak under the faucet returned.  I called the front desk and, once again, got the same girl who does not like to give her name.  I asked for her name and after she told me what it was (WOW and WOOHOO) I asked for the maintenance guy because our leak has returned.  The secretive, wanting to remain anonymous, female advised it would be a few minutes.  My phone call was at 1:05pm.  It is now 1:35 and no sign of maintenance.  What happened to this hotel?  It was so great?Breakfast isn’t bad and I clean my own room.  Other than the above, I have no complaints.Gotta go, I need to make some calls and maybe appear at the front desk to get some help with my leaky faucet.  Stuck here for about three more weeks.  Not a happy camper, so far.  Stay at your own risk.OH!  Floor by the elevator, fourth floor, has been dirty for days.  No vacuum?MoreShow less</t>
+  </si>
+  <si>
+    <t>Allie G, General Manager at Residence Inn Dallas Plano/Richardson, responded to this reviewResponded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2018</t>
+  </si>
+  <si>
+    <t>First time we stayed here, it was great.  No noise, clean, new, friendly staff.  This time, only five newspapers in the morning so I never get one.  The barbecue grill would not light although they did finally fix it so I could grill.  I live here long term so working stove, grill, etc. is essential for me.
+Developed a strange leak under the faucet in the bathroom.  Called the front desk and the girl who answered, who will remain anonymous, would not give her name when she answered the phone.  As a matter of fact, neither did the guy who answered one night.  I asked for maintenance because of the leak and she said it would be a few minutes.  About 30 minutes later, no maintenance so my husband called requesting maintenance.  After several more minutes, maintenance finally arrived.  No leak.
+One evening, we decided we wanted to rent some movies so we bought a DVD player.  Could not get it to work.  I called the front desk and asked if we were not allowed to watch movies in the room.  The man who answered, also not giving a name, said we could not watch movies in the room.  After poking around a bit, I discovered that “YES YOU CAN’ watch movies in the room via DVD player.  So we did.
+A day later, the mysterious leak under the faucet returned.  I called the front desk and, once again, got...First time we stayed here, it was great.  No noise, clean, new, friendly staff.  This time, only five newspapers in the morning so I never get one.  The barbecue grill would not light although they did finally fix it so I could grill.  I live here long term so working stove, grill, etc. is essential for me.Developed a strange leak under the faucet in the bathroom.  Called the front desk and the girl who answered, who will remain anonymous, would not give her name when she answered the phone.  As a matter of fact, neither did the guy who answered one night.  I asked for maintenance because of the leak and she said it would be a few minutes.  About 30 minutes later, no maintenance so my husband called requesting maintenance.  After several more minutes, maintenance finally arrived.  No leak.One evening, we decided we wanted to rent some movies so we bought a DVD player.  Could not get it to work.  I called the front desk and asked if we were not allowed to watch movies in the room.  The man who answered, also not giving a name, said we could not watch movies in the room.  After poking around a bit, I discovered that “YES YOU CAN’ watch movies in the room via DVD player.  So we did.A day later, the mysterious leak under the faucet returned.  I called the front desk and, once again, got the same girl who does not like to give her name.  I asked for her name and after she told me what it was (WOW and WOOHOO) I asked for the maintenance guy because our leak has returned.  The secretive, wanting to remain anonymous, female advised it would be a few minutes.  My phone call was at 1:05pm.  It is now 1:35 and no sign of maintenance.  What happened to this hotel?  It was so great?Breakfast isn’t bad and I clean my own room.  Other than the above, I have no complaints.Gotta go, I need to make some calls and maybe appear at the front desk to get some help with my leaky faucet.  Stuck here for about three more weeks.  Not a happy camper, so far.  Stay at your own risk.OH!  Floor by the elevator, fourth floor, has been dirty for days.  No vacuum?More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r563783402-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
@@ -273,18 +456,9 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t>Allie G, General Manager at Residence Inn Dallas Plano/Richardson, responded to this reviewResponded March 7, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 7, 2018</t>
-  </si>
-  <si>
     <t>I"ve stayed her 2 times in the past 2 months and gotten good rates, especially on weekends. It's clean and comfortable. The only complaint I can think of is that for some reason they dont come in the rooms some days and it's not because of a DND sign being out. There's a decent number of tv stations and the shower is fantastic. I"m not a breakfast person but it's pretty good for what it is. Good selection of foods. there's a shuttle that takes you within 5 miles but i didnt use it. you are right next to the highway but on the lower floor you dont hear it. for some reason on the top floor you can hear cars through the bathroom fan. not a huge deal. also bit more noise on the top floor from the road. not bad at all. Check in staff is super friendly. There are many hotels open/opening around this area but with a good price i'd take this every time. There are lights with outlets on next to the bed. and there's USB ports near the front door. One thing you need to note is 3rd party bookings dont get your marriott points.More</t>
   </si>
   <si>
-    <t>retired4448</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r562734315-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -303,9 +477,6 @@
     <t>This hotel is just a few months old. It has easy access to Geo Bush Hwy. The room was nicely furnished and was very clean. We got a rate of $99. per night for four nights. The breakfast was above average. The bed was very comfortable. We stayed on the back side of the hotel and did not hear any hwy traffic. We would stay here again and we highly recommend this hotel.More</t>
   </si>
   <si>
-    <t>FootTrafficTravelers</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r561344048-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -321,9 +492,6 @@
     <t>These days, it's so hard to find an affordable hotel online. The pictures look great on your phone, and then the actual hotel is a dump. Especially for rooms under $100.The Residence is a REFRESHING BREATH OF FRESH AIR in sub-$100 rooms. Absolutely beautiful rooms, spotlessly clean, friendly, professional staff...it's a 5-star experience that won't break the bank.If you've found this hotel on Trip advisor, congratulations! Your search is over! Book it. You won't regret it!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Alejandra G, General Manager at Residence Inn Dallas Plano/Richardson, responded to this reviewResponded February 20, 2018</t>
   </si>
   <si>
@@ -333,7 +501,46 @@
     <t>These days, it's so hard to find an affordable hotel online. The pictures look great on your phone, and then the actual hotel is a dump. Especially for rooms under $100.The Residence is a REFRESHING BREATH OF FRESH AIR in sub-$100 rooms. Absolutely beautiful rooms, spotlessly clean, friendly, professional staff...it's a 5-star experience that won't break the bank.If you've found this hotel on Trip advisor, congratulations! Your search is over! Book it. You won't regret it!More</t>
   </si>
   <si>
-    <t>jck7350</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r559514128-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>559514128</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>New Residence Inn</t>
+  </si>
+  <si>
+    <t>This is a great hotel for a quick stay for business. I typically go for whichever hotel is the newest and this one doesn’t disappoint. The rooms are large and modern and the bathrooms are very functional. I would try to get a room above ground level and on the backside of the hotel due to road noise. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>This is a great hotel for a quick stay for business. I typically go for whichever hotel is the newest and this one doesn’t disappoint. The rooms are large and modern and the bathrooms are very functional. I would try to get a room above ground level and on the backside of the hotel due to road noise. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r557631115-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>557631115</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be here or be square </t>
+  </si>
+  <si>
+    <t>Close to everything you need or want, staff very friendly and helpful. Chris, Allie rock. Rooms clean, pet friendly. Great a.c. rooms have a great room. Thanks for making us feel like it our home when ours was not able to be livableMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Close to everything you need or want, staff very friendly and helpful. Chris, Allie rock. Rooms clean, pet friendly. Great a.c. rooms have a great room. Thanks for making us feel like it our home when ours was not able to be livableMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r557630134-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
@@ -342,24 +549,15 @@
     <t>557630134</t>
   </si>
   <si>
-    <t>01/31/2018</t>
-  </si>
-  <si>
     <t>Best experience</t>
   </si>
   <si>
     <t>I am truly enjoying my stay at this hotel. The staff is friendly courteous and treats you like family. Chris at the front desk is always helpful and happy. The rooms are clean and spacious. I would recommend this hotel to anyone. They are pet friendly as well. MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
     <t>I am truly enjoying my stay at this hotel. The staff is friendly courteous and treats you like family. Chris at the front desk is always helpful and happy. The rooms are clean and spacious. I would recommend this hotel to anyone. They are pet friendly as well. More</t>
   </si>
   <si>
-    <t>Wayne S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r550512504-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -381,9 +579,6 @@
     <t>Had a one bedroom king suite. The rooms are nice and the TVs are big. My only issues are with housekeeping (found two used wash cloths hanging on the shower curtain). Also, it took about 2 hours to warm the room up from 66F to 77F. The breakfast is good, but they need more toasters and waffle makers (only one each). The front desk staff were really nice. Overall a good stay, but I have had better experiences at a Residence Inn.More</t>
   </si>
   <si>
-    <t>Brr4346AD</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r546432993-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -393,9 +588,6 @@
     <t>12/10/2017</t>
   </si>
   <si>
-    <t>Great Hotel</t>
-  </si>
-  <si>
     <t>Brand new residence inn right off the highway and very convenient to many restaurants and stores, excellent spot. Great fitness room and pool area. Breakfast was outstanding as well and happy hour was great as well, with bottled beer available.MoreShow less</t>
   </si>
   <si>
@@ -405,7 +597,46 @@
     <t>Brand new residence inn right off the highway and very convenient to many restaurants and stores, excellent spot. Great fitness room and pool area. Breakfast was outstanding as well and happy hour was great as well, with bottled beer available.More</t>
   </si>
   <si>
-    <t>dmacbean</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r546303778-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>546303778</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>The hotel seems very clean and close to volleyball tournament complexes, where we need to be. Several restaurants around town. They offer free breakfast. The staff is very friendly. I would stay here again sometime. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel seems very clean and close to volleyball tournament complexes, where we need to be. Several restaurants around town. They offer free breakfast. The staff is very friendly. I would stay here again sometime. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r544900834-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>544900834</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>Great service and fun place to stay</t>
+  </si>
+  <si>
+    <t>This was my 2nd week long stay, and it was just as wonderful as the 1st!  The staff are attentive and friendly. The rooms are clean and inviting. The lobby and eating area are great. Breakfast is delicious with plenty of healthy or not-so-healthy options to choose. Enjoy the free drinks and food Monday-Wednesday during a “mixer”. Get a decent workout in the “gym” equipped with 3 treadmill and some weights. MoreShow less</t>
+  </si>
+  <si>
+    <t>Eloisa S, Manager at Residence Inn Dallas Plano/Richardson, responded to this reviewResponded December 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2017</t>
+  </si>
+  <si>
+    <t>This was my 2nd week long stay, and it was just as wonderful as the 1st!  The staff are attentive and friendly. The rooms are clean and inviting. The lobby and eating area are great. Breakfast is delicious with plenty of healthy or not-so-healthy options to choose. Enjoy the free drinks and food Monday-Wednesday during a “mixer”. Get a decent workout in the “gym” equipped with 3 treadmill and some weights. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r541543383-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
@@ -426,9 +657,6 @@
     <t>I was really looking forward to staying here. I booked one night at least a month before and yet upon arrival the front desk says they had bad news that they didn’t have a room for me nor also for my co worker who had a room reserved. They indicated they had been oversold. No phone call to tell me this in advance instead they let me drive out there and tell me. So she says they had made reservations at a nearby hotel and were going to pay for that because if the inconvenience. (That is nice). So she tells me and writes down the name of the nearby hotel. She specifically wrote down that it was the holiday inn Richardson/Plano. I read the address and plugged it into google and the girl said yes that’s it. She gave me the paper with this written down and told me to bring this to them and that she already reserved the room. At this point I’m just mildly annoyed because it’s a bit further than where I wanted to be but only by another 3 miles. So we get to that specific holiday inn and the front desk there says he doesn’t have the reservation. I call back the Residence Inn and the lady there says oh they made a mistake telling us and documenting the waivers as holiday inn Richardson Plano because really they meant to send us to...I was really looking forward to staying here. I booked one night at least a month before and yet upon arrival the front desk says they had bad news that they didn’t have a room for me nor also for my co worker who had a room reserved. They indicated they had been oversold. No phone call to tell me this in advance instead they let me drive out there and tell me. So she says they had made reservations at a nearby hotel and were going to pay for that because if the inconvenience. (That is nice). So she tells me and writes down the name of the nearby hotel. She specifically wrote down that it was the holiday inn Richardson/Plano. I read the address and plugged it into google and the girl said yes that’s it. She gave me the paper with this written down and told me to bring this to them and that she already reserved the room. At this point I’m just mildly annoyed because it’s a bit further than where I wanted to be but only by another 3 miles. So we get to that specific holiday inn and the front desk there says he doesn’t have the reservation. I call back the Residence Inn and the lady there says oh they made a mistake telling us and documenting the waivers as holiday inn Richardson Plano because really they meant to send us to holiday inn at Garland! (Much further). I asked her to please cancel at the Garland location because we were at the Richardson Plano location and they had open rooms. She said no she was not sure she would be allowed to cancel with Garland holiday inn. She wanted to call me back later. I told her look it’s late traffic is bad I can’t be in Garland as I have early business meeting in Plano in the morning. I told her she needs to speak to this holiday inn front desk now. So she does reluctantly and she convinces him to do all the work in the system and then still puts him on hold for long time. She finally authorizes it. I had a nice stay at the Holiday Inn instead.More</t>
   </si>
   <si>
-    <t>Brenda J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r540074271-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -453,9 +681,6 @@
     <t>The place is like home away from home. Staff was very friendly. Staff went out of their  way to make sure we had a Happy Anniversary, they brought us chocolate covered strawberries and wine to our room with a signed card. Would definitely recommend this hotel and stay here again.More</t>
   </si>
   <si>
-    <t>Jay C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r531223347-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -480,7 +705,46 @@
     <t>We've routinely stayed at a similar extended-stay hotel nearby for years.  The lack of competition started to show in how their facility was run and maintained.  We were, therefore, thrilled to see this addition to the Plano/Richardson area.  We found a FRESH, nicely designed facility.  The rooms are spacious, very clean, and comfortable; the kitchens are well-appointed.  Our particular room was on the end of the building, and we found it so well-insulated (triple-pane windows) that we did not hear anything from the nearby highway. The breakfast bar covers the bases/nothing unusual.  Parking at the building was full each night, but there is a nice, well-lit covered parking garage onsite to handle late arrivals (we never saw more than 4-5 cars there on any morning).Special kudos to the front-desk staff who went out of their way to make sure we had the rooms we needed...they even walked us to our room for a preview to make sure it met our needs. So...we were impressed with our first stay here, and very pleased to finally have another choice.  We will certainly return.More</t>
   </si>
   <si>
-    <t>MrsSonia</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r530671000-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>530671000</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>Wounder full experience first time in a US hotel</t>
+  </si>
+  <si>
+    <t>I have been to US for couple of time but this trip was amazing, Hotel where you stay is one of the contributing factors how your overall trip is going to be. Residence INN is the best hotels which i have stayed new hotel spacious room, very very courteous behavior from the staff. Entertainment system kitchen facility is just amazing. I stay there for two months and i just love it.Improvement AreasThey need to change how they serve there breakfast it was just the same for 2 months (same options which can get over in 3-4 days) which actually give you a very dull and monotonous feeling. In fact i would recommend that if they do some fusion between the food they serve in the party thrice a week with breakfast it will be going to have a great combination.I have stayed there for 2 months i have expected a better rate and Marriott member ship point which i would have used with family. These points are easily available with other group of hotels in the same vicinity. But overall i am very happy if the team look into the improvement area it will be great.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been to US for couple of time but this trip was amazing, Hotel where you stay is one of the contributing factors how your overall trip is going to be. Residence INN is the best hotels which i have stayed new hotel spacious room, very very courteous behavior from the staff. Entertainment system kitchen facility is just amazing. I stay there for two months and i just love it.Improvement AreasThey need to change how they serve there breakfast it was just the same for 2 months (same options which can get over in 3-4 days) which actually give you a very dull and monotonous feeling. In fact i would recommend that if they do some fusion between the food they serve in the party thrice a week with breakfast it will be going to have a great combination.I have stayed there for 2 months i have expected a better rate and Marriott member ship point which i would have used with family. These points are easily available with other group of hotels in the same vicinity. But overall i am very happy if the team look into the improvement area it will be great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r524375828-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>524375828</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Newer Property.  Excellent rooms</t>
+  </si>
+  <si>
+    <t>Nice property - easy access from highway.  Free USA today.  Regular breakfast fare. Try out the restaurant, Texas (this is the restaurant's name), across the highway.  One of the best eateries in Richardson.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2017</t>
+  </si>
+  <si>
+    <t>Nice property - easy access from highway.  Free USA today.  Regular breakfast fare. Try out the restaurant, Texas (this is the restaurant's name), across the highway.  One of the best eateries in Richardson.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r515714463-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
@@ -510,9 +774,6 @@
     <t>This hotel is incredibly clean, friendly staff, and well appointed rooms that go on forever. We had a room facing the freeway. We noticed a message card on the nightstand inviting us to take advantage of the complimentary earplugs. That should have sent up a red flag but it did not. We needed a dinner recommendation and the front desk staff could not have been more informative, I loved that group! We came back from a delicious meal, which was close at hand thanks to the primo location of this hotel, and collapsed into bed. That's when we realized why there were complimentary ear plugs. The road noise was relentless, especially after 5am. Don't let that scare you away from a wonderful property, just be sure to use those earplugs!More</t>
   </si>
   <si>
-    <t>eyelovetotraveltwo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r507189377-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -540,9 +801,6 @@
     <t>We got a room on the fourth floor (no giants walking on our ceiling) and facing the back where there is a distribution center.  It was very peaceful, quiet and hassle-free.  No noisy pool parties, no traffic.  The only noise we could hear was a faint beep from the trucks at the distribution center, but it was so faint it wasn't a problem.  The room was new so nothing to complain about there.  I do my own housekeeping so the room was spotless!  It had all of the amenities that most Residence Inns possess, i.e. full kitchen with full-sized refrigerator, stove-top, microwave, coffee pot, toaster, dishes, pots and pans and utensils.  Nice barbeque grill out back.  I didn't have the pleasure of interacting with the front desk staff much BUT that's a wonderful thing because that means we had absolutely no problems at all.  The evening socials were tended to by Sonia.  She was wonderful and friendly and always made the snacks look wonderful.  Typical food, wine and beer as at most Residence Inns.  Typical breakfast every morning too.  Good stay.  We moved to this hotel from a neighboring property and will never go back to the other place.  This is our new spot.More</t>
   </si>
   <si>
-    <t>Dick S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r494889220-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -564,7 +822,43 @@
     <t>Get a room on the back side of this place or the traffic noise will keep you up. Otherwise a great place to stay, new, well appointed rooms, short on close parking, there is a nearby parking ramp. Good buffet for breakfast. More</t>
   </si>
   <si>
-    <t>Rogerio A</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r489095778-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>489095778</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Great Marriott Property</t>
+  </si>
+  <si>
+    <t>This Residence inn is fairly new and very close to the highway.  The rooms are great with a very helpful and accommodating staff.  Parking is easy as they share a parking garage with the Marriott Courtyard next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>This Residence inn is fairly new and very close to the highway.  The rooms are great with a very helpful and accommodating staff.  Parking is easy as they share a parking garage with the Marriott Courtyard next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r488305486-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>488305486</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>New Hotel. Friendly Staff</t>
+  </si>
+  <si>
+    <t>The hotel opened in January 2017.  The location is great next to the tollway.  The included breakfast buffet was very good.  Rooms are comfortable.  Staff is very friendly.  Also good coffee available all day long.  Ensure you get a room on the back side of the hotel if you are bothered by noise from the GB tollway.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel opened in January 2017.  The location is great next to the tollway.  The included breakfast buffet was very good.  Rooms are comfortable.  Staff is very friendly.  Also good coffee available all day long.  Ensure you get a room on the back side of the hotel if you are bothered by noise from the GB tollway.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r487776603-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
@@ -582,15 +876,9 @@
     <t>Very good hotel! Room is clean and spacious. Housekeeping service is very efficient. Location is very good during the night but during the day there are some noise from construction work around. All staff people are very kind.MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>Very good hotel! Room is clean and spacious. Housekeeping service is very efficient. Location is very good during the night but during the day there are some noise from construction work around. All staff people are very kind.More</t>
   </si>
   <si>
-    <t>leolite</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r473944269-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -621,9 +909,6 @@
     <t>This is a new hotel and so everything is top notch. I stayed here for 3 nights. It has complimentary WiFi and breakfast. Breakfast was very good with plenty of stuff.Room was spacious with kitchen. There are cups and plates, etc. provided as well. The sofa expands into another bed.There is a distribution center behind the hotel but I did not hear any noise.More</t>
   </si>
   <si>
-    <t>angie2061</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r466662473-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -648,7 +933,50 @@
     <t>This is an excellent place to stay in Plano!  It just opened in January 2017.  Finishing touches are still being added.  I was surprised to find two men on a scissors lift right outside my living room window (they seemed surprised to see me, too).  They appeared to be adding caulk to the window.  The kitchen has a full sized fridge, small stove, a sink, and a dishwasher.  I enjoyed having a separate living room, bedroom, bathroom, and kitchen.  The bathroom has a curved shower rod and storage space under the sink for toiletry items.  The hotel sits RIGHT OFF the highway; ear plugs are offered at the front desk if needed.  I didn't hear any noise at all and didn't use ear plugs.   The free breakfast had waffles, bacon, biscuits, eggs, fruit, cereal, etc. which was more than enough for a meal.  They have free on-site parking and free wi-fi.  There was a TV in the living area and in the bedroom.  I had a pleasant stay!More</t>
   </si>
   <si>
-    <t>Matthew D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r466609290-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>466609290</t>
+  </si>
+  <si>
+    <t>New hotel, nice place to stay</t>
+  </si>
+  <si>
+    <t>A new hotel along George Bush Hwy in Plano, conveniently located. There are studios and 1 bedroom (which are slightly larger). Rooms have a small kitchen (2 burners, sink, refridg, pots/pans, etc. ready to make your meal in the room). The 1 bedroom has a small table for eating, the studio has bar stools at a counter. The large TV swivels between the bedroom area and the couch (which pulls out).  There is also a desk. The room was dark at night.  The back side of the hotel was quiet, although on Monday morning we could hear some noise from the trucks at the warehouse behind the hotel.  No scenery from either side, as it's on a main road. The room was dark for sleeping.
+We first got a 1 bedroom loved the size.  But the room next door was loud, so they moved us to a studio (slightly smaller).  We never heard noise from other guests in this room.  The bathroom is big and the shower is excellent (long and roomy).  You can have your room made up each day, or opt out.  
+The negative thing for us was sleeping.  The bed was too soft (we're old and our back hurt more than in our younger days). The sheets were rough and folded under us as we moved around  Also, the air vent is right next to  the bed.  It's loud as it goes on and off, and woke...A new hotel along George Bush Hwy in Plano, conveniently located. There are studios and 1 bedroom (which are slightly larger). Rooms have a small kitchen (2 burners, sink, refridg, pots/pans, etc. ready to make your meal in the room). The 1 bedroom has a small table for eating, the studio has bar stools at a counter. The large TV swivels between the bedroom area and the couch (which pulls out).  There is also a desk. The room was dark at night.  The back side of the hotel was quiet, although on Monday morning we could hear some noise from the trucks at the warehouse behind the hotel.  No scenery from either side, as it's on a main road. The room was dark for sleeping.We first got a 1 bedroom loved the size.  But the room next door was loud, so they moved us to a studio (slightly smaller).  We never heard noise from other guests in this room.  The bathroom is big and the shower is excellent (long and roomy).  You can have your room made up each day, or opt out.  The negative thing for us was sleeping.  The bed was too soft (we're old and our back hurt more than in our younger days). The sheets were rough and folded under us as we moved around  Also, the air vent is right next to  the bed.  It's loud as it goes on and off, and woke us throughout the night.  We got hot then cold from the change in temp.  The manager did say they are trying to address this and get some filtering on it to lesson the noise.Breakfast was decent.  It could have more variety, but it fed us well.  There were scrambled eggs both mornings, one day was bacon and the other was sausage. There was waffles, cold cereal (just 3 kinds), hot oatmeal with fixings, breads and fruit.  There is a coffee bar and a juice bar, as well.The pool is outdoors (too cold for us to try), and we never went to the exercise room.  There is a small snack store if you want to buy a snack at the hotel.  In the room, they have a basket with coffee, tea and popcorn.  There is a grill outside for guest use.The furnishings were all nice and modern.  No broken or cut up things, so that was very nice. The hotel is 4 floors and about 125 rooms (? guessing).The manager is the gem of the place.  He's always super friendly and genuinely wants to make your stay wonderful.  He's tries to solve any problems that come up, greets you when you come in, and makes you feel welcome.  They allowed us to check in early because a room was available.  And we could check out late, but we only stayed slightly past their normal 12:00 check out time (which is much later than most hotels).I would recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>A new hotel along George Bush Hwy in Plano, conveniently located. There are studios and 1 bedroom (which are slightly larger). Rooms have a small kitchen (2 burners, sink, refridg, pots/pans, etc. ready to make your meal in the room). The 1 bedroom has a small table for eating, the studio has bar stools at a counter. The large TV swivels between the bedroom area and the couch (which pulls out).  There is also a desk. The room was dark at night.  The back side of the hotel was quiet, although on Monday morning we could hear some noise from the trucks at the warehouse behind the hotel.  No scenery from either side, as it's on a main road. The room was dark for sleeping.
+We first got a 1 bedroom loved the size.  But the room next door was loud, so they moved us to a studio (slightly smaller).  We never heard noise from other guests in this room.  The bathroom is big and the shower is excellent (long and roomy).  You can have your room made up each day, or opt out.  
+The negative thing for us was sleeping.  The bed was too soft (we're old and our back hurt more than in our younger days). The sheets were rough and folded under us as we moved around  Also, the air vent is right next to  the bed.  It's loud as it goes on and off, and woke...A new hotel along George Bush Hwy in Plano, conveniently located. There are studios and 1 bedroom (which are slightly larger). Rooms have a small kitchen (2 burners, sink, refridg, pots/pans, etc. ready to make your meal in the room). The 1 bedroom has a small table for eating, the studio has bar stools at a counter. The large TV swivels between the bedroom area and the couch (which pulls out).  There is also a desk. The room was dark at night.  The back side of the hotel was quiet, although on Monday morning we could hear some noise from the trucks at the warehouse behind the hotel.  No scenery from either side, as it's on a main road. The room was dark for sleeping.We first got a 1 bedroom loved the size.  But the room next door was loud, so they moved us to a studio (slightly smaller).  We never heard noise from other guests in this room.  The bathroom is big and the shower is excellent (long and roomy).  You can have your room made up each day, or opt out.  The negative thing for us was sleeping.  The bed was too soft (we're old and our back hurt more than in our younger days). The sheets were rough and folded under us as we moved around  Also, the air vent is right next to  the bed.  It's loud as it goes on and off, and woke us throughout the night.  We got hot then cold from the change in temp.  The manager did say they are trying to address this and get some filtering on it to lesson the noise.Breakfast was decent.  It could have more variety, but it fed us well.  There were scrambled eggs both mornings, one day was bacon and the other was sausage. There was waffles, cold cereal (just 3 kinds), hot oatmeal with fixings, breads and fruit.  There is a coffee bar and a juice bar, as well.The pool is outdoors (too cold for us to try), and we never went to the exercise room.  There is a small snack store if you want to buy a snack at the hotel.  In the room, they have a basket with coffee, tea and popcorn.  There is a grill outside for guest use.The furnishings were all nice and modern.  No broken or cut up things, so that was very nice. The hotel is 4 floors and about 125 rooms (? guessing).The manager is the gem of the place.  He's always super friendly and genuinely wants to make your stay wonderful.  He's tries to solve any problems that come up, greets you when you come in, and makes you feel welcome.  They allowed us to check in early because a room was available.  And we could check out late, but we only stayed slightly past their normal 12:00 check out time (which is much later than most hotels).I would recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r463356844-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>463356844</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>This place is perfection!</t>
+  </si>
+  <si>
+    <t>This property is only about a month old so it is in pristine condition.  Everything is clean and shiny.  The rooms are spacious and comfortable, the breakfast is pretty darn good and the staff is very helpful.  Although they don't serve lunch or dinner here, we were directed just through the parking lot to a partner Marriott where we were able to get salads, sandwiches and a glass of wine. This is a walkable distance but we drove because we didn't want to walk back in the dark. This seems like a great arrangement.  This really is an outstanding establishment in a very convenient location.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2017</t>
+  </si>
+  <si>
+    <t>This property is only about a month old so it is in pristine condition.  Everything is clean and shiny.  The rooms are spacious and comfortable, the breakfast is pretty darn good and the staff is very helpful.  Although they don't serve lunch or dinner here, we were directed just through the parking lot to a partner Marriott where we were able to get salads, sandwiches and a glass of wine. This is a walkable distance but we drove because we didn't want to walk back in the dark. This seems like a great arrangement.  This really is an outstanding establishment in a very convenient location.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r462007749-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
@@ -678,9 +1006,6 @@
     <t>The biggest perk is that it's a brand new hotel with modern amenities. There is a lot of construction and new buildings near this property. There is nothing walkable except for a gas station and convenient store. The staff was friendly and the hotel had all of the amenities you'd expect at a Residence Inn. My room faced a major expressway which was noisy. There are rooms that face the other direction.More</t>
   </si>
   <si>
-    <t>edshortt</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r456535442-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -696,9 +1021,6 @@
     <t>This hotel is on a very convenient location, near the highways to go anywhere but with windows that keep the noise out from your room.The hotel lobby, rooms and elevators seem all new (elevators are slow :) They have free breakfast and free drinks and food between 6:00 pm and 8:00 pm. The rooms are spacious, full kitchen, new big TV. Comfortable bed and good pillows.The AC worked well and no noise.The bathroom is very nice and clean (although they have 'soft' water that takes more work to remove the soap from your hands/body :). Be careful driving out of this hotel, cars drive really fast on the frontage road.MoreShow less</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
     <t>Management response:Responded February 9, 2017</t>
   </si>
   <si>
@@ -706,9 +1028,6 @@
   </si>
   <si>
     <t>This hotel is on a very convenient location, near the highways to go anywhere but with windows that keep the noise out from your room.The hotel lobby, rooms and elevators seem all new (elevators are slow :) They have free breakfast and free drinks and food between 6:00 pm and 8:00 pm. The rooms are spacious, full kitchen, new big TV. Comfortable bed and good pillows.The AC worked well and no noise.The bathroom is very nice and clean (although they have 'soft' water that takes more work to remove the soap from your hands/body :). Be careful driving out of this hotel, cars drive really fast on the frontage road.More</t>
-  </si>
-  <si>
-    <t>Cameron S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r454630056-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
@@ -741,7 +1060,43 @@
 Even after being on the go for nearly 18 hours straight today, I made time to write this review because Eloisa Sanchez was the best part of my day and...With nearly 550 nights logged with Marriott in the last 3 years, I hope this review is taken with a heavy weight. Eloisa Sanchez single handedly drove me to write this review tonight. I could go on to tell you about my day filled with travel delays and stressful meetings, but I didn't have to share these details with Eloisa; she was the single shining moment for me in what was otherwise a terrible day.After I had checked in, I had to leave for a late evening business meeting and Eloisa had informed me about the complimentary dinner option they had available - the free wine caught my attention after the long day I had, but I had to rush off. When I came back I realized I had missed the wine. I checked the grab and go, and realized no wine was available for purchase. Eloisa instantly appeared and offered to grab me a glass from the kitchen.  I was amazed by the extra effort she took to even offer me a second glass. No one had ever been so kind to me.  Ever.To add to my stressful day, I later realized I had forgotten my brush, and within minutes Eloisa was there to save the day.Even after being on the go for nearly 18 hours straight today, I made time to write this review because Eloisa Sanchez was the best part of my day and she deserves to be recognized. She represents the reason why I will always be a loyal Marriott member.  Thank you Eloisa!!!More</t>
   </si>
   <si>
-    <t>Pilot_Kevin</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r453112407-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>453112407</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>Great service and immaculate rooms</t>
+  </si>
+  <si>
+    <t>I always enjoy residence inn, and so I typically look to book my business trips with them - Especially after their recent updates to their rooms. I stayed at this one for 3 nights, and it was the best of all of my RI stays. Apparently this building had just been completed so it was very clean and nice inside and out. The staff greeted me by name when I walked in, and always went above and beyond in every interaction. Also the price was very reasonable. I would highly recommend staying here if you have a trip to Plano/Richardson coming up, as it is convenient to the main thoroughfares of George bush and 75, and also close to many restaurants and shops. I would absolutely stay again - 5 stars. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>I always enjoy residence inn, and so I typically look to book my business trips with them - Especially after their recent updates to their rooms. I stayed at this one for 3 nights, and it was the best of all of my RI stays. Apparently this building had just been completed so it was very clean and nice inside and out. The staff greeted me by name when I walked in, and always went above and beyond in every interaction. Also the price was very reasonable. I would highly recommend staying here if you have a trip to Plano/Richardson coming up, as it is convenient to the main thoroughfares of George bush and 75, and also close to many restaurants and shops. I would absolutely stay again - 5 stars. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r453038669-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>453038669</t>
+  </si>
+  <si>
+    <t>BEST BUSINESS HOTEL IN TEN YEARS!</t>
+  </si>
+  <si>
+    <t>This is a new property, first class comfortable and welcoming. As a heavy business traveler the amenities like super-fast WiFi, great desk, complementary breakfast and comfortable room are greatly appreciated. Our reservations at a different hotel were canceled by that property with no alternates offered. We found Eloisa and "her place" in a random search. Her and the team here could not have been more welcoming &amp; helpful! They found us dinner next door late in the evening. After a two hour search (not caused by them) this felt more like we came home to family rather than checking into a hotel. If you are in the area this is the ONLY place to consider. It's by far the best business hotel experience I have had in over ten years bar none!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a new property, first class comfortable and welcoming. As a heavy business traveler the amenities like super-fast WiFi, great desk, complementary breakfast and comfortable room are greatly appreciated. Our reservations at a different hotel were canceled by that property with no alternates offered. We found Eloisa and "her place" in a random search. Her and the team here could not have been more welcoming &amp; helpful! They found us dinner next door late in the evening. After a two hour search (not caused by them) this felt more like we came home to family rather than checking into a hotel. If you are in the area this is the ONLY place to consider. It's by far the best business hotel experience I have had in over ten years bar none!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r452888488-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
@@ -759,18 +1114,9 @@
     <t>I have found a new favorite place to stay when in the Plano/ Richardson Area! Fantastic staff, brand-new rooms, Great location! Easy on easy off from the George W. Bush turnpike, Great restaurants and plenty to do in the area!MoreShow less</t>
   </si>
   <si>
-    <t>Management response:Responded January 19, 2017</t>
-  </si>
-  <si>
-    <t>Responded January 19, 2017</t>
-  </si>
-  <si>
     <t>I have found a new favorite place to stay when in the Plano/ Richardson Area! Fantastic staff, brand-new rooms, Great location! Easy on easy off from the George W. Bush turnpike, Great restaurants and plenty to do in the area!More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r452862753-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -784,9 +1130,6 @@
   </si>
   <si>
     <t>Beautiful brand new hotel with everything! You have to stay here.. best decision we made all week. Rooms are quiet, TVs are large and the kitchens have it all. Socials at night and very good breakfasts. More</t>
-  </si>
-  <si>
-    <t>Paul C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10802981-r452491174-Residence_Inn_Dallas_Plano_Richardson-Plano_Texas.html</t>
@@ -1315,189 +1658,177 @@
       <c r="A2" t="n">
         <v>33936</v>
       </c>
-      <c r="B2" t="n">
-        <v>175875</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33936</v>
       </c>
-      <c r="B3" t="n">
-        <v>175876</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3" t="s">
-        <v>56</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33936</v>
       </c>
-      <c r="B4" t="n">
-        <v>175877</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
@@ -1506,61 +1837,53 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>55</v>
-      </c>
-      <c r="X4" t="s">
-        <v>56</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33936</v>
       </c>
-      <c r="B5" t="n">
-        <v>175878</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1572,135 +1895,119 @@
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>83</v>
-      </c>
-      <c r="X5" t="s">
-        <v>84</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33936</v>
       </c>
-      <c r="B6" t="n">
-        <v>175879</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33936</v>
       </c>
-      <c r="B7" t="n">
-        <v>175880</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1712,339 +2019,323 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33936</v>
       </c>
-      <c r="B8" t="n">
-        <v>175881</v>
-      </c>
-      <c r="C8" t="s">
-        <v>103</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33936</v>
       </c>
-      <c r="B9" t="n">
-        <v>17616</v>
-      </c>
-      <c r="C9" t="s">
-        <v>111</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="X9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33936</v>
       </c>
-      <c r="B10" t="n">
-        <v>80652</v>
-      </c>
-      <c r="C10" t="s">
-        <v>119</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>99</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="X10" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33936</v>
       </c>
-      <c r="B11" t="n">
-        <v>175882</v>
-      </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>105</v>
+      </c>
+      <c r="X11" t="s">
+        <v>106</v>
+      </c>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33936</v>
       </c>
-      <c r="B12" t="n">
-        <v>175883</v>
-      </c>
-      <c r="C12" t="s">
-        <v>134</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
       </c>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -2053,200 +2344,184 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33936</v>
       </c>
-      <c r="B13" t="n">
-        <v>67158</v>
-      </c>
-      <c r="C13" t="s">
-        <v>143</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33936</v>
       </c>
-      <c r="B14" t="n">
-        <v>175884</v>
-      </c>
-      <c r="C14" t="s">
-        <v>152</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
         <v>5</v>
       </c>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="X14" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33936</v>
       </c>
-      <c r="B15" t="n">
-        <v>175885</v>
-      </c>
-      <c r="C15" t="s">
-        <v>162</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2262,60 +2537,56 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="X15" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="Y15" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33936</v>
       </c>
-      <c r="B16" t="n">
-        <v>175886</v>
-      </c>
-      <c r="C16" t="s">
-        <v>172</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2327,129 +2598,117 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="X16" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33936</v>
       </c>
-      <c r="B17" t="n">
-        <v>76133</v>
-      </c>
-      <c r="C17" t="s">
-        <v>180</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="X17" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="Y17" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33936</v>
       </c>
-      <c r="B18" t="n">
-        <v>175887</v>
-      </c>
-      <c r="C18" t="s">
-        <v>188</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2461,268 +2720,248 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="X18" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="Y18" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33936</v>
       </c>
-      <c r="B19" t="n">
-        <v>175888</v>
-      </c>
-      <c r="C19" t="s">
-        <v>199</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="X19" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="Y19" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33936</v>
       </c>
-      <c r="B20" t="n">
-        <v>3884</v>
-      </c>
-      <c r="C20" t="s">
-        <v>208</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="J20" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>99</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="X20" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="Y20" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33936</v>
       </c>
-      <c r="B21" t="n">
-        <v>175889</v>
-      </c>
-      <c r="C21" t="s">
-        <v>218</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
       <c r="I21" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="J21" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s">
-        <v>222</v>
+        <v>49</v>
       </c>
       <c r="L21" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s">
-        <v>99</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="X21" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="Y21" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33936</v>
       </c>
-      <c r="B22" t="n">
-        <v>171258</v>
-      </c>
-      <c r="C22" t="s">
-        <v>228</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
       <c r="I22" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="J22" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>214</v>
-      </c>
-      <c r="O22" t="s">
-        <v>99</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
@@ -2733,214 +2972,1551 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="X22" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="Y22" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33936</v>
       </c>
-      <c r="B23" t="n">
-        <v>175890</v>
-      </c>
-      <c r="C23" t="s">
-        <v>237</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
         <v>47</v>
       </c>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
       <c r="I23" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="J23" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="K23" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="O23" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="X23" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="Y23" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33936</v>
       </c>
-      <c r="B24" t="n">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>246</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
         <v>47</v>
       </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
       <c r="I24" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="J24" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="O24" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>243</v>
-      </c>
-      <c r="X24" t="s">
-        <v>244</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33936</v>
       </c>
-      <c r="B25" t="n">
-        <v>42097</v>
-      </c>
-      <c r="C25" t="s">
-        <v>252</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
         <v>47</v>
       </c>
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
       <c r="I25" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="J25" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="K25" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="O25" t="s">
-        <v>99</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
       <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
+        <v>214</v>
+      </c>
+      <c r="X25" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>218</v>
+      </c>
+      <c r="J26" t="s">
+        <v>219</v>
+      </c>
+      <c r="K26" t="s">
+        <v>220</v>
+      </c>
+      <c r="L26" t="s">
+        <v>221</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>113</v>
+      </c>
+      <c r="O26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>222</v>
+      </c>
+      <c r="X26" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>226</v>
+      </c>
+      <c r="J27" t="s">
+        <v>227</v>
+      </c>
+      <c r="K27" t="s">
+        <v>228</v>
+      </c>
+      <c r="L27" t="s">
+        <v>229</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>162</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>222</v>
+      </c>
+      <c r="X27" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" t="s">
+        <v>234</v>
+      </c>
+      <c r="L28" t="s">
+        <v>235</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>162</v>
+      </c>
+      <c r="O28" t="s">
+        <v>114</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>236</v>
+      </c>
+      <c r="X28" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29" t="s">
+        <v>241</v>
+      </c>
+      <c r="K29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>244</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>245</v>
+      </c>
+      <c r="X29" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>248</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>249</v>
+      </c>
+      <c r="J30" t="s">
+        <v>250</v>
+      </c>
+      <c r="K30" t="s">
+        <v>251</v>
+      </c>
+      <c r="L30" t="s">
+        <v>252</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>253</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>254</v>
+      </c>
+      <c r="X30" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>257</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
         <v>258</v>
       </c>
-      <c r="X25" t="s">
+      <c r="J31" t="s">
         <v>259</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="K31" t="s">
         <v>260</v>
+      </c>
+      <c r="L31" t="s">
+        <v>261</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>262</v>
+      </c>
+      <c r="O31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>254</v>
+      </c>
+      <c r="X31" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>264</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>265</v>
+      </c>
+      <c r="J32" t="s">
+        <v>266</v>
+      </c>
+      <c r="K32" t="s">
+        <v>267</v>
+      </c>
+      <c r="L32" t="s">
+        <v>268</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>269</v>
+      </c>
+      <c r="O32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>254</v>
+      </c>
+      <c r="X32" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" t="s">
+        <v>273</v>
+      </c>
+      <c r="K33" t="s">
+        <v>274</v>
+      </c>
+      <c r="L33" t="s">
+        <v>275</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>269</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>254</v>
+      </c>
+      <c r="X33" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>277</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>278</v>
+      </c>
+      <c r="J34" t="s">
+        <v>279</v>
+      </c>
+      <c r="K34" t="s">
+        <v>280</v>
+      </c>
+      <c r="L34" t="s">
+        <v>281</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>269</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>254</v>
+      </c>
+      <c r="X34" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>284</v>
+      </c>
+      <c r="J35" t="s">
+        <v>285</v>
+      </c>
+      <c r="K35" t="s">
+        <v>286</v>
+      </c>
+      <c r="L35" t="s">
+        <v>287</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>288</v>
+      </c>
+      <c r="O35" t="s">
+        <v>289</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>290</v>
+      </c>
+      <c r="X35" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>293</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>294</v>
+      </c>
+      <c r="J36" t="s">
+        <v>295</v>
+      </c>
+      <c r="K36" t="s">
+        <v>296</v>
+      </c>
+      <c r="L36" t="s">
+        <v>297</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>244</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>298</v>
+      </c>
+      <c r="X36" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>302</v>
+      </c>
+      <c r="J37" t="s">
+        <v>295</v>
+      </c>
+      <c r="K37" t="s">
+        <v>303</v>
+      </c>
+      <c r="L37" t="s">
+        <v>304</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>244</v>
+      </c>
+      <c r="O37" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>298</v>
+      </c>
+      <c r="X37" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>306</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>307</v>
+      </c>
+      <c r="J38" t="s">
+        <v>308</v>
+      </c>
+      <c r="K38" t="s">
+        <v>309</v>
+      </c>
+      <c r="L38" t="s">
+        <v>310</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>311</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>312</v>
+      </c>
+      <c r="X38" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>315</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>316</v>
+      </c>
+      <c r="J39" t="s">
+        <v>317</v>
+      </c>
+      <c r="K39" t="s">
+        <v>318</v>
+      </c>
+      <c r="L39" t="s">
+        <v>319</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>320</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>321</v>
+      </c>
+      <c r="X39" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>324</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>325</v>
+      </c>
+      <c r="J40" t="s">
+        <v>326</v>
+      </c>
+      <c r="K40" t="s">
+        <v>327</v>
+      </c>
+      <c r="L40" t="s">
+        <v>328</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>311</v>
+      </c>
+      <c r="O40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>329</v>
+      </c>
+      <c r="X40" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>332</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>333</v>
+      </c>
+      <c r="J41" t="s">
+        <v>334</v>
+      </c>
+      <c r="K41" t="s">
+        <v>335</v>
+      </c>
+      <c r="L41" t="s">
+        <v>336</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>320</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>337</v>
+      </c>
+      <c r="X41" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>340</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>341</v>
+      </c>
+      <c r="J42" t="s">
+        <v>342</v>
+      </c>
+      <c r="K42" t="s">
+        <v>343</v>
+      </c>
+      <c r="L42" t="s">
+        <v>344</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>320</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>345</v>
+      </c>
+      <c r="X42" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>348</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>349</v>
+      </c>
+      <c r="J43" t="s">
+        <v>342</v>
+      </c>
+      <c r="K43" t="s">
+        <v>350</v>
+      </c>
+      <c r="L43" t="s">
+        <v>351</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>320</v>
+      </c>
+      <c r="O43" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>345</v>
+      </c>
+      <c r="X43" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>353</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>354</v>
+      </c>
+      <c r="J44" t="s">
+        <v>355</v>
+      </c>
+      <c r="K44" t="s">
+        <v>356</v>
+      </c>
+      <c r="L44" t="s">
+        <v>357</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>320</v>
+      </c>
+      <c r="O44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>345</v>
+      </c>
+      <c r="X44" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>359</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>360</v>
+      </c>
+      <c r="J45" t="s">
+        <v>355</v>
+      </c>
+      <c r="K45" t="s">
+        <v>361</v>
+      </c>
+      <c r="L45" t="s">
+        <v>362</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>320</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>345</v>
+      </c>
+      <c r="X45" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33936</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>364</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>365</v>
+      </c>
+      <c r="J46" t="s">
+        <v>366</v>
+      </c>
+      <c r="K46" t="s">
+        <v>367</v>
+      </c>
+      <c r="L46" t="s">
+        <v>368</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>320</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>369</v>
+      </c>
+      <c r="X46" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
